--- a/Spreadsheets/5600X.xlsx
+++ b/Spreadsheets/5600X.xlsx
@@ -6877,7 +6877,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -8157,11 +8157,11 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor, IN HAND❤️, WHO WILL BE LUCKY?!?</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor, IN HAND❤��, WHO WILL BE LUCKY?!?</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8189,7 +8189,7 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -9181,7 +9181,7 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>

--- a/Spreadsheets/5600X.xlsx
+++ b/Spreadsheets/5600X.xlsx
@@ -993,29 +993,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) - IN HAND</t>
+          <t>AMD 100-100000065BOX Ryzen 5 5600X, with Wraith Stealth Cooler</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>In stock ready to ship</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="E18" t="n">
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>418.99</v>
+        <v>449</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-IN-HAND/224260038708?epid=4041988763&amp;hash=item3436f0a034:g:owkAAOSwDTdfoFuK</t>
+          <t>https://www.ebay.com/itm/AMD-100-100000065BOX-Ryzen-5-5600X-with-Wraith-Stealth-Cooler/184556682913?epid=14042276408&amp;hash=item2af86f7ea1:g:Vp0AAOSwxSNfwZXu</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) - IN HAND</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1034,20 +1034,20 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>409.99</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="F19" t="n">
-        <v>409.99</v>
+        <v>418.99</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/402584753701?epid=4041988763&amp;hash=item5dbbebd625:g:P38AAOSw-rVfxuye</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-IN-HAND/224260038708?epid=4041988763&amp;hash=item3436f0a034:g:owkAAOSwDTdfoFuK</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>New ListingAMD - Ryzen 5 5600X 4th Gen 6-core Unlocked Processor With Wraith Stealth Cooler</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1066,20 +1066,20 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>409</v>
+        <v>409.99</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>409</v>
+        <v>409.99</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-4th-Gen-6-core-Unlocked-Processor-With-Wraith-Stealth-Cooler/333810546003?hash=item4db8a8b553:g:yo4AAOSwBlhfvPgd</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/402584753701?epid=4041988763&amp;hash=item5dbbebd625:g:P38AAOSw-rVfxuye</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">READY TO SHIP AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor ***IN HAND*** </t>
+          <t>New ListingAMD - Ryzen 5 5600X 4th Gen 6-core Unlocked Processor With Wraith Stealth Cooler</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1098,20 +1098,20 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/READY-TO-SHIP-AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/303786986885?epid=28042677701&amp;hash=item46bb1d8d85:g:Z8cAAOSw27dfvf3J</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-4th-Gen-6-core-Unlocked-Processor-With-Wraith-Stealth-Cooler/333810546003?hash=item4db8a8b553:g:yo4AAOSwBlhfvPgd</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">***READY TO SHIP*** AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor </t>
+          <t xml:space="preserve">READY TO SHIP AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor ***IN HAND*** </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1130,20 +1130,20 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/READY-TO-SHIP-AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor/303786981358?epid=28042677701&amp;hash=item46bb1d77ee:g:lSAAAOSw97dfvf-h</t>
+          <t>https://www.ebay.com/itm/READY-TO-SHIP-AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/303786986885?epid=28042677701&amp;hash=item46bb1d8d85:g:Z8cAAOSw27dfvf3J</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>⚡⚡AMD RYZEN 5 5600x CPU 6 CORE 12 THREAD AM4 PROCESSOR - BRAND NEW, SEALED⚡⚡</t>
+          <t>New ListingAMD Ryzen 5 5600X Original Package,  Wraith Stealth Cooler Included</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1162,20 +1162,20 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RYZEN-5-5600x-CPU-6-CORE-12-THREAD-AM4-PROCESSOR-BRAND-NEW-SEALED/383833434333?epid=14042276408&amp;hash=item595e4168dd:g:~U4AAOSwGCxfwsKa</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Original-Package-Wraith-Stealth-Cooler-Included/174542045484?epid=14042276408&amp;hash=item28a384412c:g:qHQAAOSwcddfxu1a</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor ***IN HAND*** </t>
+          <t xml:space="preserve">***READY TO SHIP*** AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1194,20 +1194,20 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>429.99</v>
+        <v>425</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>429.99</v>
+        <v>425</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/114550794355?epid=28042677701&amp;hash=item1aabc26873:g:LF8AAOSwz6tfwcX3</t>
+          <t>https://www.ebay.com/itm/READY-TO-SHIP-AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor/303786981358?epid=28042677701&amp;hash=item46bb1d77ee:g:lSAAAOSw97dfvf-h</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) In Hand</t>
+          <t>⚡⚡AMD RYZEN 5 5600x CPU 6 CORE 12 THREAD AM4 PROCESSOR - BRAND NEW, SEALED⚡⚡</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1226,20 +1226,20 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-In-Hand/254794909487?epid=4041988763&amp;hash=item3b52f5c72f:g:D00AAOSw629fwAdG</t>
+          <t>https://www.ebay.com/itm/AMD-RYZEN-5-5600x-CPU-6-CORE-12-THREAD-AM4-PROCESSOR-BRAND-NEW-SEALED/383833434333?epid=14042276408&amp;hash=item595e4168dd:g:~U4AAOSwGCxfwsKa</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK - IN HAND</t>
+          <t xml:space="preserve">AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor ***IN HAND*** </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1258,20 +1258,20 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>430</v>
+        <v>429.99</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>430</v>
+        <v>429.99</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK-IN-HAND/402577535815?epid=4041988763&amp;hash=item5dbb7db347:g:aoQAAOSwSG5frn5w</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/114550794355?epid=28042677701&amp;hash=item1aabc26873:g:LF8AAOSwz6tfwcX3</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X **SEALED, Never Open** In hand FAST SHIPPING</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) In Hand</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1290,20 +1290,20 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>399.88</v>
+        <v>420</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>399.88</v>
+        <v>420</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-SEALED-Never-Open-In-hand-FAST-SHIPPING/174541821368?hash=item28a380d5b8:g:uZYAAOSwH9tftt2u</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-In-Hand/254794909487?epid=4041988763&amp;hash=item3b52f5c72f:g:D00AAOSw629fwAdG</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK - 100-100…</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK - IN HAND</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1322,20 +1322,20 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK-100-100/184557914167?epid=4041988763&amp;hash=item2af8824837:g:xw0AAOSw3VpfwtO-</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK-IN-HAND/402577535815?epid=4041988763&amp;hash=item5dbb7db347:g:aoQAAOSwSG5frn5w</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">***IN HAND*** AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor </t>
+          <t>AMD Ryzen 5 5600X **SEALED, Never Open** In hand FAST SHIPPING</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1354,20 +1354,20 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>415</v>
+        <v>399.88</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>415</v>
+        <v>399.88</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor/303786979193?epid=28042677701&amp;hash=item46bb1d6f79:g:Z8cAAOSw27dfvf3J</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-SEALED-Never-Open-In-hand-FAST-SHIPPING/174541821368?hash=item28a380d5b8:g:uZYAAOSwH9tftt2u</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[IN HAND] AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK - 100-100…</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1386,20 +1386,20 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>424.99</v>
+        <v>406</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>424.99</v>
+        <v>406</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/154222485319?epid=4041988763&amp;hash=item23e8605f47:g:RL0AAOSww-tfqx97</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK-100-100/184557914167?epid=4041988763&amp;hash=item2af8824837:g:xw0AAOSw3VpfwtO-</t>
         </is>
       </c>
     </row>
@@ -1409,29 +1409,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AMD 100-100000065BOX Ryzen 5 5600X, with Wraith Stealth Cooler</t>
+          <t xml:space="preserve">***IN HAND*** AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>In stock ready to ship</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-100-100000065BOX-Ryzen-5-5600X-with-Wraith-Stealth-Cooler/184556682913?epid=14042276408&amp;hash=item2af86f7ea1:g:Vp0AAOSwxSNfwZXu</t>
+          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor/303786979193?epid=28042677701&amp;hash=item46bb1d6f79:g:Z8cAAOSw27dfvf3J</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 6-Core 3.7 GHz Socket AM4 65W CPU Desktop Processor w/ Cooler</t>
+          <t>[IN HAND] AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1450,20 +1450,20 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>420</v>
+        <v>424.99</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420</v>
+        <v>424.99</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-Core-3-7-GHz-Socket-AM4-65W-CPU-Desktop-Processor-w-Cooler/303785240811?epid=14042276408&amp;hash=item46bb02e8eb:g:4WcAAOSwHHtfpk2Q</t>
+          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/154222485319?epid=4041988763&amp;hash=item23e8605f47:g:RL0AAOSww-tfqx97</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
+          <t>AMD Ryzen 5 5600X 6-Core 3.7 GHz Socket AM4 65W CPU Desktop Processor w/ Cooler</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1482,20 +1482,20 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/124462620289?epid=4041988763&amp;hash=item1cfa8cde81:g:ED0AAOSwSqJfwrDm</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-Core-3-7-GHz-Socket-AM4-65W-CPU-Desktop-Processor-w-Cooler/303785240811?epid=14042276408&amp;hash=item46bb02e8eb:g:4WcAAOSwHHtfpk2Q</t>
         </is>
       </c>
     </row>
@@ -1514,20 +1514,20 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E34" t="n">
-        <v>8.140000000000001</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>415.14</v>
+        <v>410</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/284096038529?epid=4041988763&amp;hash=item4225718681:g:MjEAAOSwuRxfwUwa</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/124462620289?epid=4041988763&amp;hash=item1cfa8cde81:g:ED0AAOSwSqJfwrDm</t>
         </is>
       </c>
     </row>
@@ -1546,20 +1546,20 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>420</v>
+        <v>415.14</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/254794078981?epid=4041988763&amp;hash=item3b52e91b05:g:f90AAOSwzHdfxNGX</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/284096038529?epid=4041988763&amp;hash=item4225718681:g:MjEAAOSwuRxfwUwa</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600x 4th Gen 6-Core, Unlocked With Wraith Stealth Cooler *In Hand*</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1578,20 +1578,20 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600x-4th-Gen-6-Core-Unlocked-With-Wraith-Stealth-Cooler-In-Hand/254794857495?epid=14042276408&amp;hash=item3b52f4fc17:g:wdgAAOSwEflfxcA1</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/254794078981?epid=4041988763&amp;hash=item3b52e91b05:g:f90AAOSwzHdfxNGX</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor  IN HAND</t>
+          <t>AMD Ryzen 5 5600x 4th Gen 6-Core, Unlocked With Wraith Stealth Cooler *In Hand*</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1610,20 +1610,20 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/264958722662?epid=24042267832&amp;hash=item3db0c54266:g:E-QAAOSwgtBfu-YS</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600x-4th-Gen-6-Core-Unlocked-With-Wraith-Stealth-Cooler-In-Hand/254794857495?epid=14042276408&amp;hash=item3b52f4fc17:g:wdgAAOSwEflfxcA1</t>
         </is>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">***IN HAND*** AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor </t>
+          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor  IN HAND</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1642,20 +1642,20 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor/303786978875?epid=28042677701&amp;hash=item46bb1d6e3b:g:lXMAAOSwHBhfwHeb</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/264958722662?epid=24042267832&amp;hash=item3db0c54266:g:E-QAAOSwgtBfu-YS</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
+          <t xml:space="preserve">***IN HAND*** AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1674,20 +1674,20 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E39" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>398.95</v>
+        <v>401</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/284092614975?epid=4041988763&amp;hash=item42253d493f:g:rPkAAOSw4MdfvSjM</t>
+          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor/303786978875?epid=28042677701&amp;hash=item46bb1d6e3b:g:lXMAAOSwHBhfwHeb</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Ryzen 5 5600X READY TO SHIP IN HAND AND SAME DAY!  </t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1706,20 +1706,20 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="E40" t="n">
-        <v>10.9</v>
+        <v>3.95</v>
       </c>
       <c r="F40" t="n">
-        <v>425.9</v>
+        <v>398.95</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-READY-TO-SHIP-IN-HAND-AND-SAME-DAY/363202002530?epid=14042276408&amp;hash=item549086be62:g:KL4AAOSwk2lfxQuC</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/284092614975?epid=4041988763&amp;hash=item42253d493f:g:rPkAAOSw4MdfvSjM</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) (In Hand)</t>
+          <t xml:space="preserve">AMD Ryzen 5 5600X READY TO SHIP IN HAND AND SAME DAY!  </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1738,20 +1738,20 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E41" t="n">
-        <v>9.99</v>
+        <v>10.9</v>
       </c>
       <c r="F41" t="n">
-        <v>429.99</v>
+        <v>425.9</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-In-Hand/203204018681?epid=3042000955&amp;hash=item2f4fe741f9:g:x-UAAOSwthtfxcPi</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-READY-TO-SHIP-IN-HAND-AND-SAME-DAY/363202002530?epid=14042276408&amp;hash=item549086be62:g:KL4AAOSwk2lfxQuC</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7 GHz 6-Core Socket AM4 Unlocked Processor w/ Wraith Cooler</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) (In Hand)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1770,20 +1770,20 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>414.95</v>
+        <v>420</v>
       </c>
       <c r="E42" t="n">
-        <v>12.95</v>
+        <v>9.99</v>
       </c>
       <c r="F42" t="n">
-        <v>427.9</v>
+        <v>429.99</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-6-Core-Socket-AM4-Unlocked-Processor-w-Wraith-Cooler/143861909305?hash=item217ed68739:g:mdYAAOSweXhfsEtj</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-In-Hand/203204018681?epid=3042000955&amp;hash=item2f4fe741f9:g:x-UAAOSwthtfxcPi</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor  IN HAND</t>
+          <t>AMD Ryzen 5 5600X 3.7 GHz 6-Core Socket AM4 Unlocked Processor w/ Wraith Cooler</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1802,20 +1802,20 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>439</v>
+        <v>414.95</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>12.95</v>
       </c>
       <c r="F43" t="n">
-        <v>439</v>
+        <v>427.9</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/303785610787?epid=28042677701&amp;hash=item46bb088e23:g:LCEAAOSwLAtftN1Q</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-6-Core-Socket-AM4-Unlocked-Processor-w-Wraith-Cooler/143861909305?hash=item217ed68739:g:mdYAAOSweXhfsEtj</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) - IN HAND</t>
+          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor  IN HAND</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1834,20 +1834,20 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>409.99</v>
+        <v>439</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>409.99</v>
+        <v>439</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-IN-HAND/274593541538?epid=4041988763&amp;hash=item3fef0ceda2:g:owkAAOSwDTdfoFuK</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/303785610787?epid=28042677701&amp;hash=item46bb088e23:g:LCEAAOSwLAtftN1Q</t>
         </is>
       </c>
     </row>
@@ -1857,29 +1857,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (3.7 Ghz, 6-core, AM4 Socket) ready to ship</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) - IN HAND</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pre-Owned</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>405</v>
+        <v>409.99</v>
       </c>
       <c r="E45" t="n">
-        <v>8.85</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>413.85</v>
+        <v>409.99</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-3-7-Ghz-6-core-AM4-Socket-ready-to-ship/333802895817?epid=4041988763&amp;hash=item4db833f9c9:g:PR0AAOSw8DNfv3Tw</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-IN-HAND/274593541538?epid=4041988763&amp;hash=item3fef0ceda2:g:owkAAOSwDTdfoFuK</t>
         </is>
       </c>
     </row>
@@ -1889,29 +1889,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AMD RYZEN 5 5600x CPU 6 CORE 12 THREAD AM4 DESKTOP PROCESSOR - BRAND NEW, SEALED</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (3.7 Ghz, 6-core, AM4 Socket) ready to ship</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Pre-Owned</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>449.99</v>
+        <v>405</v>
       </c>
       <c r="E46" t="n">
-        <v>4.9</v>
+        <v>8.85</v>
       </c>
       <c r="F46" t="n">
-        <v>454.89</v>
+        <v>413.85</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RYZEN-5-5600x-CPU-6-CORE-12-THREAD-AM4-DESKTOP-PROCESSOR-BRAND-NEW-SEALED/154221307276?epid=14042276408&amp;hash=item23e84e658c:g:J4IAAOSwQrpfxc~7</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-3-7-Ghz-6-core-AM4-Socket-ready-to-ship/333802895817?epid=4041988763&amp;hash=item4db833f9c9:g:PR0AAOSw8DNfv3Tw</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor, Brand New (Sealed), Fast Ship</t>
+          <t>AMD RYZEN 5 5600x CPU 6 CORE 12 THREAD AM4 DESKTOP PROCESSOR - BRAND NEW, SEALED</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1930,20 +1930,20 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>409.99</v>
+        <v>449.99</v>
       </c>
       <c r="E47" t="n">
-        <v>12.99</v>
+        <v>4.9</v>
       </c>
       <c r="F47" t="n">
-        <v>422.98</v>
+        <v>454.89</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-Brand-New-Sealed-Fast-Ship/284098287690?epid=14042276408&amp;hash=item422593d84a:g:JA8AAOSwcmVfxCsW</t>
+          <t>https://www.ebay.com/itm/AMD-RYZEN-5-5600x-CPU-6-CORE-12-THREAD-AM4-DESKTOP-PROCESSOR-BRAND-NEW-SEALED/154221307276?epid=14042276408&amp;hash=item23e84e658c:g:J4IAAOSwQrpfxc~7</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) In Hand</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor, Brand New (Sealed), Fast Ship</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1962,20 +1962,20 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>415</v>
+        <v>409.99</v>
       </c>
       <c r="E48" t="n">
-        <v>10.04</v>
+        <v>12.99</v>
       </c>
       <c r="F48" t="n">
-        <v>425.04</v>
+        <v>422.98</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-In-Hand/264950436769?epid=4041988763&amp;hash=item3db046d3a1:g:dWYAAOSwzZZfvJT~</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-Brand-New-Sealed-Fast-Ship/284098287690?epid=14042276408&amp;hash=item422593d84a:g:JA8AAOSwcmVfxCsW</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor ***IN HAND READY TO SHIP***</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) In Hand</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1994,20 +1994,20 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>414.99</v>
+        <v>415</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>10.04</v>
       </c>
       <c r="F49" t="n">
-        <v>414.99</v>
+        <v>425.04</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-IN-HAND-READY-TO-SHIP/224258622554?hash=item3436db045a:g:XlMAAOSw7VpfxaEi</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-In-Hand/264950436769?epid=4041988763&amp;hash=item3db046d3a1:g:dWYAAOSwzZZfvJT~</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 6-core 12-Thread Unlocked Desktop Processor ready ship in hand</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor ***IN HAND READY TO SHIP***</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2026,20 +2026,20 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>420</v>
+        <v>414.99</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>420</v>
+        <v>414.99</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Unlocked-Desktop-Processor-ready-ship-in-hand/203203570205?epid=16033158153&amp;hash=item2f4fe06a1d:g:zDwAAOSwfL1ePBHC</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-IN-HAND-READY-TO-SHIP/224258622554?hash=item3436db045a:g:XlMAAOSw7VpfxaEi</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600x 4th Gen 6-Core, Unlocked With Wraith Stealth Cooler *In Hand*</t>
+          <t>AMD Ryzen 5 5600X 6-core 12-Thread Unlocked Desktop Processor ready ship in hand</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2058,20 +2058,20 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>419.95</v>
+        <v>420</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>419.95</v>
+        <v>420</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600x-4th-Gen-6-Core-Unlocked-With-Wraith-Stealth-Cooler-In-Hand/174540648686?epid=14042276408&amp;hash=item28a36ef0ee:g:iIsAAOSwtllfvp35</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Unlocked-Desktop-Processor-ready-ship-in-hand/203203570205?epid=16033158153&amp;hash=item2f4fe06a1d:g:zDwAAOSwfL1ePBHC</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) (In Hand)</t>
+          <t>AMD Ryzen 5 5600x 4th Gen 6-Core, Unlocked With Wraith Stealth Cooler *In Hand*</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2090,20 +2090,20 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>440</v>
+        <v>419.95</v>
       </c>
       <c r="E52" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>449.9</v>
+        <v>419.95</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-In-Hand/303780905634?hash=item46bac0c2a2:g:As0AAOSw0vBfvHHm</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600x-4th-Gen-6-Core-Unlocked-With-Wraith-Stealth-Cooler-In-Hand/174540648686?epid=14042276408&amp;hash=item28a36ef0ee:g:iIsAAOSwtllfvp35</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor AM4 6 Cores 12 Threads *FREE SHIPPING*</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) (In Hand)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2122,20 +2122,20 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="F53" t="n">
-        <v>415</v>
+        <v>449.9</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-AM4-6-Cores-12-Threads-FREE-SHIPPING/284099266810?epid=14042276408&amp;hash=item4225a2c8fa:g:SeYAAOSwjXtfvBin</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-In-Hand/303780905634?hash=item46bac0c2a2:g:As0AAOSw0vBfvHHm</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AMD RYZEN 5 5600X Processor (6-core, 3.7 GHz) Brand New in Box, Ships Same Day!</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor AM4 6 Cores 12 Threads *FREE SHIPPING*</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2154,20 +2154,20 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>419.95</v>
+        <v>415</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>419.95</v>
+        <v>415</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RYZEN-5-5600X-Processor-6-core-3-7-GHz-Brand-New-in-Box-Ships-Same-Day/164522857685?hash=item264e5394d5:g:xBMAAOSwRtlftgEo</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-AM4-6-Cores-12-Threads-FREE-SHIPPING/284099266810?epid=14042276408&amp;hash=item4225a2c8fa:g:SeYAAOSwjXtfvBin</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X **IN HAND READY TO SHIP** (3.7GHz, 6 Cores)</t>
+          <t>AMD RYZEN 5 5600X Processor (6-core, 3.7 GHz) Brand New in Box, Ships Same Day!</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2186,20 +2186,20 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>400</v>
+        <v>419.95</v>
       </c>
       <c r="E55" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>409.9</v>
+        <v>419.95</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-IN-HAND-READY-TO-SHIP-3-7GHz-6-Cores/324398838962?epid=4041988763&amp;hash=item4b87ad74b2:g:HhQAAOSwNTZfxYjr</t>
+          <t>https://www.ebay.com/itm/AMD-RYZEN-5-5600X-Processor-6-core-3-7-GHz-Brand-New-in-Box-Ships-Same-Day/164522857685?hash=item264e5394d5:g:xBMAAOSwRtlftgEo</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>IN HAND! AMD Ryzen 5 5600x Desktop Processor Zen 3 READ DESCRIPTION!</t>
+          <t>AMD Ryzen 5 5600X **IN HAND READY TO SHIP** (3.7GHz, 6 Cores)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2218,20 +2218,20 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="E56" t="n">
-        <v>10.9</v>
+        <v>9.9</v>
       </c>
       <c r="F56" t="n">
-        <v>405.9</v>
+        <v>409.9</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600x-Desktop-Processor-Zen-3-READ-DESCRIPTION/284096345235?epid=23042003683&amp;hash=item4225763493:g:UmUAAOSw-JRfvcDB</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-IN-HAND-READY-TO-SHIP-3-7GHz-6-Cores/324398838962?epid=4041988763&amp;hash=item4b87ad74b2:g:HhQAAOSwNTZfxYjr</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (6 Core, 12 Threads) SHIPS SAME DAY ✅</t>
+          <t>IN HAND! AMD Ryzen 5 5600x Desktop Processor Zen 3 READ DESCRIPTION!</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2250,20 +2250,20 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>10.9</v>
       </c>
       <c r="F57" t="n">
-        <v>407</v>
+        <v>405.9</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-6-Core-12-Threads-SHIPS-SAME-DAY/174540535317?hash=item28a36d3615:g:ovcAAOSwqf5fxX1d</t>
+          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600x-Desktop-Processor-Zen-3-READ-DESCRIPTION/284096345235?epid=23042003683&amp;hash=item4225763493:g:UmUAAOSw-JRfvcDB</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NEW AMD Ryzen 5 5600X Desktop Processor 4.6GHz 6 Cores - SHIPS IMMEDIATELY!</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (6 Core, 12 Threads) SHIPS SAME DAY ✅</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2282,20 +2282,20 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-SHIPS-IMMEDIATELY/224248908060?epid=4041988763&amp;hash=item343646c91c:g:rQcAAOSw0UJfvefF</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-6-Core-12-Threads-SHIPS-SAME-DAY/174540535317?hash=item28a36d3615:g:ovcAAOSwqf5fxX1d</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) </t>
+          <t>NEW AMD Ryzen 5 5600X Desktop Processor 4.6GHz 6 Cores - SHIPS IMMEDIATELY!</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2314,20 +2314,20 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="E59" t="n">
-        <v>8.85</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>413.85</v>
+        <v>430</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/353290424458?epid=4041988763&amp;hash=item5241c0108a:g:26wAAOSwzI5fvFIO</t>
+          <t>https://www.ebay.com/itm/NEW-AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-SHIPS-IMMEDIATELY/224248908060?epid=4041988763&amp;hash=item343646c91c:g:rQcAAOSw0UJfvefF</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5600X Processor (4.6GHz, 6 Cores) - IN HAND - FREE 2 Day Shipping</t>
+          <t xml:space="preserve">AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2346,20 +2346,20 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>8.85</v>
       </c>
       <c r="F60" t="n">
-        <v>420</v>
+        <v>413.85</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5600X-Processor-4-6GHz-6-Cores-IN-HAND-FREE-2-Day-Shipping/293858336121?epid=4041988763&amp;hash=item446b525d79:g:owkAAOSwDTdfoFuK</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/353290424458?epid=4041988763&amp;hash=item5241c0108a:g:26wAAOSwzI5fvFIO</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>*IN HAND* AMD Ryzen 5 5600X 6-Core 3.7 GHz Socket AM4 65W 100-100000065BOX</t>
+          <t>AMD Ryzen 5600X Processor (4.6GHz, 6 Cores) - IN HAND - FREE 2 Day Shipping</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2378,20 +2378,20 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>409.99</v>
+        <v>420</v>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>419.99</v>
+        <v>420</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-6-Core-3-7-GHz-Socket-AM4-65W-100-100000065BOX/324395473785?epid=14042276408&amp;hash=item4b877a1b79:g:9foAAOSwPKlftWJy</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5600X-Processor-4-6GHz-6-Cores-IN-HAND-FREE-2-Day-Shipping/293858336121?epid=4041988763&amp;hash=item446b525d79:g:owkAAOSwDTdfoFuK</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (3.7GHz, 6 Cores, Socket AM4) Fast Shippping</t>
+          <t>*IN HAND* AMD Ryzen 5 5600X 6-Core 3.7 GHz Socket AM4 65W 100-100000065BOX</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2410,20 +2410,20 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>415</v>
+        <v>409.99</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>425</v>
+        <v>419.99</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-3-7GHz-6-Cores-Socket-AM4-Fast-Shippping/353297656877?epid=4041988763&amp;hash=item52422e6c2d:g:g1gAAOSwbLxfwilC</t>
+          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-6-Core-3-7-GHz-Socket-AM4-65W-100-100000065BOX/324395473785?epid=14042276408&amp;hash=item4b877a1b79:g:9foAAOSwPKlftWJy</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Ryzen 5 5600X READY TO SHIP IN HAND AND SAME DAY!  </t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (3.7GHz, 6 Cores, Socket AM4) Fast Shippping</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2442,20 +2442,20 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-READY-TO-SHIP-IN-HAND-AND-SAME-DAY/224258330266?epid=14042276408&amp;hash=item3436d68e9a:g:vTwAAOSwwSpfxVoC</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-3-7GHz-6-Cores-Socket-AM4-Fast-Shippping/353297656877?epid=4041988763&amp;hash=item52422e6c2d:g:g1gAAOSwbLxfwilC</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X || ***IN HAND READY TO SHIP***</t>
+          <t xml:space="preserve">AMD Ryzen 5 5600X READY TO SHIP IN HAND AND SAME DAY!  </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2474,20 +2474,20 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E64" t="n">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>442.95</v>
+        <v>420</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-IN-HAND-READY-TO-SHIP/174538869156?hash=item28a353c9a4:g:S1oAAOSwW~hfpGmp</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-READY-TO-SHIP-IN-HAND-AND-SAME-DAY/224258330266?epid=14042276408&amp;hash=item3436d68e9a:g:vTwAAOSwwSpfxVoC</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>**IN HAND** AMD Ryzen 5 5600X (4.6GHz, 6 Cores, AM4) w/ Wraith Cooler</t>
+          <t>AMD Ryzen 5 5600X || ***IN HAND READY TO SHIP***</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2506,20 +2506,20 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="E65" t="n">
-        <v>10.95</v>
+        <v>4.95</v>
       </c>
       <c r="F65" t="n">
-        <v>410.95</v>
+        <v>442.95</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-4-6GHz-6-Cores-AM4-w-Wraith-Cooler/154216278094?epid=3042000955&amp;hash=item23e801a84e:g:99oAAOSw3XBfwV7Z</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-IN-HAND-READY-TO-SHIP/174538869156?hash=item28a353c9a4:g:S1oAAOSwW~hfpGmp</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 6-core 12-Thread Unlocked Desktop Processor ready ship in hand</t>
+          <t>**IN HAND** AMD Ryzen 5 5600X (4.6GHz, 6 Cores, AM4) w/ Wraith Cooler</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2541,17 +2541,17 @@
         <v>400</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>10.95</v>
       </c>
       <c r="F66" t="n">
-        <v>400</v>
+        <v>410.95</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Unlocked-Desktop-Processor-ready-ship-in-hand/203178851855?epid=16033158153&amp;hash=item2f4e673e0f:g:zDwAAOSwfL1ePBHC</t>
+          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-4-6GHz-6-Cores-AM4-w-Wraith-Cooler/154216278094?epid=3042000955&amp;hash=item23e801a84e:g:99oAAOSw3XBfwV7Z</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
+          <t>AMD Ryzen 5 5600X 6-core 12-Thread Unlocked Desktop Processor ready ship in hand</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2570,20 +2570,20 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="E67" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>468.95</v>
+        <v>400</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/184544945364?epid=4041988763&amp;hash=item2af7bc64d4:g:XzMAAOSw-tBfuBjv</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Unlocked-Desktop-Processor-ready-ship-in-hand/203178851855?epid=16033158153&amp;hash=item2f4e673e0f:g:zDwAAOSwfL1ePBHC</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, AM4) with Wraith Spire</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2602,20 +2602,20 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>398.49</v>
+        <v>465</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="F68" t="n">
-        <v>398.49</v>
+        <v>468.95</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-AM4-with-Wraith-Spire/402581387471?epid=4041988763&amp;hash=item5dbbb878cf:g:owkAAOSwDTdfoFuK</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/184544945364?epid=4041988763&amp;hash=item2af7bc64d4:g:XzMAAOSw-tBfuBjv</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 4th Gen 6-Core, Unlocked With Wraith Stealth Cooler *In Hand*</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, AM4) with Wraith Spire</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2634,20 +2634,20 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>396.99</v>
+        <v>398.49</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>404.99</v>
+        <v>398.49</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-4th-Gen-6-Core-Unlocked-With-Wraith-Stealth-Cooler-In-Hand/164546840908?epid=4041988763&amp;hash=item264fc1894c:g:Bs4AAOSwcbhfvolS</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-AM4-with-Wraith-Spire/402581387471?epid=4041988763&amp;hash=item5dbbb878cf:g:owkAAOSwDTdfoFuK</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600x</t>
+          <t>AMD Ryzen 5 5600X 4th Gen 6-Core, Unlocked With Wraith Stealth Cooler *In Hand*</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2666,20 +2666,20 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>380</v>
+        <v>396.99</v>
       </c>
       <c r="E70" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F70" t="n">
-        <v>395</v>
+        <v>404.99</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600x/324398180382?hash=item4b87a3681e:g:cdgAAOSwcbhfw8cw</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-4th-Gen-6-Core-Unlocked-With-Wraith-Stealth-Cooler-In-Hand/164546840908?epid=4041988763&amp;hash=item264fc1894c:g:Bs4AAOSwcbhfvolS</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NEW AMD Ryzen 5 5600X Desktop CPU Processor 4.6GHz, 6 Cores, AM4, 65W TDP, 7nm</t>
+          <t>AMD Ryzen 5 5600x</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2698,20 +2698,20 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>414.99</v>
+        <v>380</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F71" t="n">
-        <v>414.99</v>
+        <v>395</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-AMD-Ryzen-5-5600X-Desktop-CPU-Processor-4-6GHz-6-Cores-AM4-65W-TDP-7nm/333808053921?epid=4041988763&amp;hash=item4db882aea1:g:lFYAAOSwVYZfpfJM</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600x/324398180382?hash=item4b87a3681e:g:cdgAAOSwcbhfw8cw</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (6 Core, 12 Threads) Ships Same Day ✅</t>
+          <t>NEW AMD Ryzen 5 5600X Desktop CPU Processor 4.6GHz, 6 Cores, AM4, 65W TDP, 7nm</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2730,20 +2730,20 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>399.99</v>
+        <v>414.99</v>
       </c>
       <c r="E72" t="n">
-        <v>13.65</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>413.64</v>
+        <v>414.99</v>
       </c>
       <c r="G72" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-6-Core-12-Threads-Ships-Same-Day/143866536118?hash=item217f1d20b6:g:~E0AAOSw5MFfw8fh</t>
+          <t>https://www.ebay.com/itm/NEW-AMD-Ryzen-5-5600X-Desktop-CPU-Processor-4-6GHz-6-Cores-AM4-65W-TDP-7nm/333808053921?epid=4041988763&amp;hash=item4db882aea1:g:lFYAAOSwVYZfpfJM</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (6 Core, 12 Threads) Ships Same Day ✅</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2762,20 +2762,20 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>399</v>
+        <v>399.99</v>
       </c>
       <c r="E73" t="n">
-        <v>3.95</v>
+        <v>13.65</v>
       </c>
       <c r="F73" t="n">
-        <v>402.95</v>
+        <v>413.64</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/393036309359?epid=4041988763&amp;hash=item5b82ca236f:g:2u8AAOSwYxxfw8i0</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-6-Core-12-Threads-Ships-Same-Day/143866536118?hash=item217f1d20b6:g:~E0AAOSw5MFfw8fh</t>
         </is>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600x</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2794,20 +2794,20 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="E74" t="n">
-        <v>15</v>
+        <v>3.95</v>
       </c>
       <c r="F74" t="n">
-        <v>395</v>
+        <v>402.95</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600x/324398136241?hash=item4b87a2bbb1:g:cdgAAOSwcbhfw8cw</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/393036309359?epid=4041988763&amp;hash=item5b82ca236f:g:2u8AAOSwYxxfw8i0</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600x/324396484361?hash=item4b87898709:g:cdgAAOSwcbhfw8cw</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600x/324398136241?hash=item4b87a2bbb1:g:cdgAAOSwcbhfw8cw</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X - 100-100000065BOX - NEW - In-hand Ready to Ship</t>
+          <t>AMD Ryzen 5 5600x</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2858,20 +2858,20 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F76" t="n">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-100-100000065BOX-NEW-In-hand-Ready-to-Ship/373369990553?epid=3042000955&amp;hash=item56ee95ed99:g:hSsAAOSwmOhfwoxU</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600x/324396484361?hash=item4b87898709:g:cdgAAOSwcbhfw8cw</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7GHz 6-Core AM4 Processor - Brand New Sealed - Ships Today</t>
+          <t>AMD Ryzen 5 5600X - 100-100000065BOX - NEW - In-hand Ready to Ship</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2890,20 +2890,20 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>419.99</v>
+        <v>430</v>
       </c>
       <c r="E77" t="n">
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>429.98</v>
+        <v>430</v>
       </c>
       <c r="G77" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7GHz-6-Core-AM4-Processor-Brand-New-Sealed-Ships-Today/393027514937?epid=14042276408&amp;hash=item5b8243f239:g:23EAAOSw8-hfurBt</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-100-100000065BOX-NEW-In-hand-Ready-to-Ship/373369990553?epid=3042000955&amp;hash=item56ee95ed99:g:hSsAAOSwmOhfwoxU</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
+          <t>AMD Ryzen 5 5600X 3.7GHz 6-Core AM4 Processor - Brand New Sealed - Ships Today</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2922,20 +2922,20 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>468</v>
+        <v>419.99</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>9.99</v>
       </c>
       <c r="F78" t="n">
-        <v>475</v>
+        <v>429.98</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/184534455783?epid=4041988763&amp;hash=item2af71c55e7:g:94UAAOSwcSxfrr38</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7GHz-6-Core-AM4-Processor-Brand-New-Sealed-Ships-Today/393027514937?epid=14042276408&amp;hash=item5b8243f239:g:23EAAOSw8-hfurBt</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">*NEW* *IN HAND* *SHIPS FAST*  AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor </t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2954,20 +2954,20 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>400</v>
+        <v>468</v>
       </c>
       <c r="E79" t="n">
-        <v>14.2</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>414.2</v>
+        <v>475</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-IN-HAND-SHIPS-FAST-AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor/313318864969?epid=28042677701&amp;hash=item48f3427849:g:ZtcAAOSwxSNfvsF4</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/184534455783?epid=4041988763&amp;hash=item2af71c55e7:g:94UAAOSwcSxfrr38</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ryzen 5 5600x 6-Core, 12 Threads Unlocked Processor ** In Hand Ships Today**</t>
+          <t xml:space="preserve">*NEW* *IN HAND* *SHIPS FAST*  AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor </t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2986,20 +2986,20 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="E80" t="n">
-        <v>25</v>
+        <v>14.2</v>
       </c>
       <c r="F80" t="n">
-        <v>440</v>
+        <v>414.2</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-5-5600x-6-Core-12-Threads-Unlocked-Processor-In-Hand-Ships-Today/402580176865?hash=item5dbba5ffe1:g:KlcAAOSwKIBfsHXC</t>
+          <t>https://www.ebay.com/itm/NEW-IN-HAND-SHIPS-FAST-AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor/313318864969?epid=28042677701&amp;hash=item48f3427849:g:ZtcAAOSwxSNfvsF4</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor (IN HAND) ready to ship today.</t>
+          <t>Ryzen 5 5600x 6-Core, 12 Threads Unlocked Processor ** In Hand Ships Today**</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3018,20 +3018,20 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F81" t="n">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="G81" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND-ready-to-ship-today/174536633443?epid=4041988763&amp;hash=item28a331ac63:g:MYoAAOSwq1tfwWNr</t>
+          <t>https://www.ebay.com/itm/Ryzen-5-5600x-6-Core-12-Threads-Unlocked-Processor-In-Hand-Ships-Today/402580176865?hash=item5dbba5ffe1:g:KlcAAOSwKIBfsHXC</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor ***IN HAND*** </t>
+          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor (IN HAND) ready to ship today.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3050,20 +3050,20 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/303785545670?epid=28042677701&amp;hash=item46bb078fc6:g:lXMAAOSwHBhfwHeb</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND-ready-to-ship-today/174536633443?epid=4041988763&amp;hash=item28a331ac63:g:MYoAAOSwq1tfwWNr</t>
         </is>
       </c>
     </row>
@@ -3082,20 +3082,20 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/303785469972?epid=28042677701&amp;hash=item46bb066814:g:Z8cAAOSw27dfvf3J</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/303785545670?epid=28042677701&amp;hash=item46bb078fc6:g:lXMAAOSwHBhfwHeb</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor IN HAND READY TO SHIP!!</t>
+          <t xml:space="preserve">AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor ***IN HAND*** </t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3114,20 +3114,20 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="E84" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>405.9</v>
+        <v>385</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND-READY-TO-SHIP/264954120704?epid=4041988763&amp;hash=item3db07f0a00:g:GmoAAOSwtllfwFgT</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/303785469972?epid=28042677701&amp;hash=item46bb066814:g:Z8cAAOSw27dfvf3J</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) </t>
+          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor IN HAND READY TO SHIP!!</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3146,20 +3146,20 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>10.9</v>
       </c>
       <c r="F85" t="n">
-        <v>395</v>
+        <v>405.9</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/174535712159?epid=4041988763&amp;hash=item28a3239d9f:g:9B0AAOSwDchfvFgh</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND-READY-TO-SHIP/264954120704?epid=4041988763&amp;hash=item3db07f0a00:g:GmoAAOSwtllfwFgT</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 6-core, 12-Thread Unlocked Desktop CPU</t>
+          <t xml:space="preserve">AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) </t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3178,20 +3178,20 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Unlocked-Desktop-CPU/184555513162?hash=item2af85da54a:g:5ZAAAOSwkWlfwHwC</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/174535712159?epid=4041988763&amp;hash=item28a3239d9f:g:9B0AAOSwDchfvFgh</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>***IN HAND*** AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor ready to ship</t>
+          <t>AMD Ryzen 5 5600X 6-core, 12-Thread Unlocked Desktop CPU</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-ready-to-ship/303785436169?epid=28042677701&amp;hash=item46bb05e409:g:Z8cAAOSw27dfvf3J</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Unlocked-Desktop-CPU/184555513162?hash=item2af85da54a:g:5ZAAAOSwkWlfwHwC</t>
         </is>
       </c>
     </row>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 6-core, 12-Thread Processor w Wraith Stealth Cooler</t>
+          <t>***IN HAND*** AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor ready to ship</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3242,20 +3242,20 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Processor-w-Wraith-Stealth-Cooler/224256840090?epid=4041988763&amp;hash=item3436bfd19a:g:0l0AAOSwpiRfxDpS</t>
+          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-ready-to-ship/303785436169?epid=28042677701&amp;hash=item46bb05e409:g:Z8cAAOSw27dfvf3J</t>
         </is>
       </c>
     </row>
@@ -3265,29 +3265,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) *Broken*</t>
+          <t>AMD Ryzen 5 5600X 6-core, 12-Thread Processor w Wraith Stealth Cooler</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Parts Only</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>275</v>
+        <v>405</v>
       </c>
       <c r="E89" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>282.5</v>
+        <v>405</v>
       </c>
       <c r="G89" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-Broken/264948683279?hash=item3db02c120f:g:wOEAAOSwPGBfuvB5</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Processor-w-Wraith-Stealth-Cooler/224256840090?epid=4041988763&amp;hash=item3436bfd19a:g:0l0AAOSwpiRfxDpS</t>
         </is>
       </c>
     </row>
@@ -3297,29 +3297,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 6-Core 3.7 GHz Socket - IN HAND - FAST SHIPPING</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) *Broken*</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Parts Only</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>370.51</v>
+        <v>275</v>
       </c>
       <c r="E90" t="n">
-        <v>73.14</v>
+        <v>7.5</v>
       </c>
       <c r="F90" t="n">
-        <v>443.65</v>
+        <v>282.5</v>
       </c>
       <c r="G90" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-Core-3-7-GHz-Socket-IN-HAND-FAST-SHIPPING/284095084488?epid=14042276408&amp;hash=item422562f7c8:g:ftsAAOSwczxfsyhr</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-Broken/264948683279?hash=item3db02c120f:g:wOEAAOSwPGBfuvB5</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK - 100-100…</t>
+          <t>AMD Ryzen 5 5600X 6-Core 3.7 GHz Socket - IN HAND - FAST SHIPPING</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3338,20 +3338,20 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>400</v>
+        <v>370.51</v>
       </c>
       <c r="E91" t="n">
-        <v>8.050000000000001</v>
+        <v>73.14</v>
       </c>
       <c r="F91" t="n">
-        <v>408.05</v>
+        <v>443.65</v>
       </c>
       <c r="G91" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK-100-100/143865012272?epid=4041988763&amp;hash=item217f05e030:g:H~AAAOSwvvdfwWK3</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-Core-3-7-GHz-Socket-IN-HAND-FAST-SHIPPING/284095084488?epid=14042276408&amp;hash=item422562f7c8:g:ftsAAOSwczxfsyhr</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (6 Core, 12 Threads) Ships Same Day ✅</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK - 100-100…</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3370,20 +3370,20 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>398.95</v>
+        <v>400</v>
       </c>
       <c r="E92" t="n">
-        <v>9.9</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>408.85</v>
+        <v>408.05</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-6-Core-12-Threads-Ships-Same-Day/224256114945?hash=item3436b4c101:g:oOcAAOSwq~xfw7yN</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK-100-100/143865012272?epid=4041988763&amp;hash=item217f05e030:g:H~AAAOSwvvdfwWK3</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X CPU - ** IN HAND READY TO SHIP **</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (6 Core, 12 Threads) Ships Same Day ✅</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3402,20 +3402,20 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>400</v>
+        <v>398.95</v>
       </c>
       <c r="E93" t="n">
-        <v>3.85</v>
+        <v>9.9</v>
       </c>
       <c r="F93" t="n">
-        <v>403.85</v>
+        <v>408.85</v>
       </c>
       <c r="G93" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-CPU-IN-HAND-READY-TO-SHIP/383833331027?epid=4041988763&amp;hash=item595e3fd553:g:ywIAAOSw9-9fuU8B</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-6-Core-12-Threads-Ships-Same-Day/224256114945?hash=item3436b4c101:g:oOcAAOSwq~xfw7yN</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
+          <t>AMD Ryzen 5 5600X CPU - ** IN HAND READY TO SHIP **</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3434,20 +3434,20 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>398.99</v>
+        <v>400</v>
       </c>
       <c r="E94" t="n">
-        <v>13.99</v>
+        <v>3.85</v>
       </c>
       <c r="F94" t="n">
-        <v>412.98</v>
+        <v>403.85</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/114548047882?epid=4041988763&amp;hash=item1aab98800a:g:7w0AAOSwPRFfw68p</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-CPU-IN-HAND-READY-TO-SHIP/383833331027?epid=4041988763&amp;hash=item595e3fd553:g:ywIAAOSw9-9fuU8B</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3466,20 +3466,20 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>399</v>
+        <v>398.99</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>13.99</v>
       </c>
       <c r="F95" t="n">
-        <v>399</v>
+        <v>412.98</v>
       </c>
       <c r="G95" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/114538937418?epid=4041988763&amp;hash=item1aab0d7c4a:g:5JsAAOSwQ5tfvVGQ</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/114548047882?epid=4041988763&amp;hash=item1aab98800a:g:7w0AAOSwPRFfw68p</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X || ***IN HAND READY TO SHIP***</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3498,20 +3498,20 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="E96" t="n">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>443.95</v>
+        <v>399</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-IN-HAND-READY-TO-SHIP/174535551610?epid=24042267832&amp;hash=item28a3212a7a:g:S1oAAOSwW~hfpGmp</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/114538937418?epid=4041988763&amp;hash=item1aab0d7c4a:g:5JsAAOSwQ5tfvVGQ</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor - No longer needed.</t>
+          <t>AMD Ryzen 5 5600X || ***IN HAND READY TO SHIP***</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3530,20 +3530,20 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="E97" t="n">
-        <v>3.95</v>
+        <v>4.95</v>
       </c>
       <c r="F97" t="n">
-        <v>403.95</v>
+        <v>443.95</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-No-longer-needed/224245108251?hash=item34360cce1b:g:EjYAAOSwWplfuqVM</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-IN-HAND-READY-TO-SHIP/174535551610?epid=24042267832&amp;hash=item28a3212a7a:g:S1oAAOSwW~hfpGmp</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NEW AMD Ryzen 5 5600X Desktop CPU Processor 4.6GHz, 6 Cores, AM4, 65W TDP, 7nm</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor - No longer needed.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3562,20 +3562,20 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>414.99</v>
+        <v>400</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="F98" t="n">
-        <v>414.99</v>
+        <v>403.95</v>
       </c>
       <c r="G98" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-AMD-Ryzen-5-5600X-Desktop-CPU-Processor-4-6GHz-6-Cores-AM4-65W-TDP-7nm/224241390927?epid=4041988763&amp;hash=item3435d4154f:g:lFYAAOSwVYZfpfJM</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-No-longer-needed/224245108251?hash=item34360cce1b:g:EjYAAOSwWplfuqVM</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) w/Receipt</t>
+          <t>NEW AMD Ryzen 5 5600X Desktop CPU Processor 4.6GHz, 6 Cores, AM4, 65W TDP, 7nm</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3594,20 +3594,20 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>395</v>
+        <v>414.99</v>
       </c>
       <c r="E99" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>399.7</v>
+        <v>414.99</v>
       </c>
       <c r="G99" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-w-Receipt/402573012865?epid=4041988763&amp;hash=item5dbb38af81:g:Ud8AAOSwD7Nfun7T</t>
+          <t>https://www.ebay.com/itm/NEW-AMD-Ryzen-5-5600X-Desktop-CPU-Processor-4-6GHz-6-Cores-AM4-65W-TDP-7nm/224241390927?epid=4041988763&amp;hash=item3435d4154f:g:lFYAAOSwVYZfpfJM</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (6 Core, 12 Threads) Ships Same Day ✅</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) w/Receipt</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3626,20 +3626,20 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>399.99</v>
+        <v>395</v>
       </c>
       <c r="E100" t="n">
-        <v>8.85</v>
+        <v>4.7</v>
       </c>
       <c r="F100" t="n">
-        <v>408.84</v>
+        <v>399.7</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-6-Core-12-Threads-Ships-Same-Day/143865830217?hash=item217f125b49:g:tQwAAOSw~Vhft4Js</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-w-Receipt/402573012865?epid=4041988763&amp;hash=item5dbb38af81:g:Ud8AAOSwD7Nfun7T</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Brand New Sealed Desktop Processor 6 Cores Socket AM4 MPK -...</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (6 Core, 12 Threads) Ships Same Day ✅</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3658,20 +3658,20 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>405</v>
+        <v>399.99</v>
       </c>
       <c r="E101" t="n">
-        <v>16.9</v>
+        <v>8.85</v>
       </c>
       <c r="F101" t="n">
-        <v>421.9</v>
+        <v>408.84</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Brand-New-Sealed-Desktop-Processor-6-Cores-Socket-AM4-MPK/174525005270?epid=14042276408&amp;hash=item28a2803dd6:g:5xkAAOSwVgdftg6j</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-6-Core-12-Threads-Ships-Same-Day/143865830217?hash=item217f125b49:g:tQwAAOSw~Vhft4Js</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>AMD 100-100000065BOX Ryzen 5 5600X, with Wraith Stealth Cooler</t>
+          <t>AMD Ryzen 5 5600X Brand New Sealed Desktop Processor 6 Cores Socket AM4 MPK -...</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3690,20 +3690,20 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>16.9</v>
       </c>
       <c r="F102" t="n">
-        <v>360</v>
+        <v>421.9</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-100-100000065BOX-Ryzen-5-5600X-with-Wraith-Stealth-Cooler/393035774439?epid=14042276408&amp;hash=item5b82c1f9e7:g:izoAAOSwbVVfwxl0</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Brand-New-Sealed-Desktop-Processor-6-Cores-Socket-AM4-MPK/174525005270?epid=14042276408&amp;hash=item28a2803dd6:g:5xkAAOSwVgdftg6j</t>
         </is>
       </c>
     </row>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 4th Gen 6-core, 12-threads Unlocked IN HAND READY TO GO</t>
+          <t>AMD 100-100000065BOX Ryzen 5 5600X, with Wraith Stealth Cooler</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3722,20 +3722,20 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="E103" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="G103" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-4th-Gen-6-core-12-threads-Unlocked-IN-HAND-READY-TO-GO/193770285456?hash=item2d1d9be990:g:iRUAAOSwLKxfpcw0</t>
+          <t>https://www.ebay.com/itm/AMD-100-100000065BOX-Ryzen-5-5600X-with-Wraith-Stealth-Cooler/393035774439?epid=14042276408&amp;hash=item5b82c1f9e7:g:izoAAOSwbVVfwxl0</t>
         </is>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve">***IN HAND*** AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor </t>
+          <t>AMD Ryzen 5 5600X 4th Gen 6-core, 12-threads Unlocked IN HAND READY TO GO</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F104" t="n">
         <v>405</v>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor/303782747518?epid=28042677701&amp;hash=item46badcdd7e:g:lSAAAOSw97dfvf-h</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-4th-Gen-6-core-12-threads-Unlocked-IN-HAND-READY-TO-GO/193770285456?hash=item2d1d9be990:g:iRUAAOSwLKxfpcw0</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (3.7 GHz, 6 Cores, Socket AM4) IN HAND</t>
+          <t xml:space="preserve">***IN HAND*** AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor </t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3786,20 +3786,20 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-3-7-GHz-6-Cores-Socket-AM4-IN-HAND/303777528362?hash=item46ba8d3a2a:g:T4QAAOSwIqlfuZjC</t>
+          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor/303782747518?epid=28042677701&amp;hash=item46badcdd7e:g:lSAAAOSw97dfvf-h</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor  IN HAND READY TO SHIP!!</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (3.7 GHz, 6 Cores, Socket AM4) IN HAND</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3818,20 +3818,20 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND-READY-TO-SHIP/303782743650?epid=28042677701&amp;hash=item46badcce62:g:nI4AAOSwNkRfrjuA</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-3-7-GHz-6-Cores-Socket-AM4-IN-HAND/303777528362?hash=item46ba8d3a2a:g:T4QAAOSwIqlfuZjC</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X **SEALED, Never Open** In hand FAST SHIPPING</t>
+          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor  IN HAND READY TO SHIP!!</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3850,20 +3850,20 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>399.88</v>
+        <v>400</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>399.88</v>
+        <v>400</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-SEALED-Never-Open-In-hand-FAST-SHIPPING/174537709613?hash=item28a342182d:g:uZYAAOSwH9tftt2u</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND-READY-TO-SHIP/303782743650?epid=28042677701&amp;hash=item46badcce62:g:nI4AAOSwNkRfrjuA</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ryzen 5 5600x</t>
+          <t>AMD Ryzen 5 5600X **SEALED, Never Open** In hand FAST SHIPPING</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3882,20 +3882,20 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>395</v>
+        <v>399.88</v>
       </c>
       <c r="E108" t="n">
-        <v>9.69</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>404.69</v>
+        <v>399.88</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-5-5600x/353292978781?hash=item5241e70a5d:g:K70AAOSwJG5fsuHi</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-SEALED-Never-Open-In-hand-FAST-SHIPPING/174537709613?hash=item28a342182d:g:uZYAAOSwH9tftt2u</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
+          <t>Ryzen 5 5600x</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3914,20 +3914,20 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="E109" t="n">
-        <v>3.95</v>
+        <v>9.69</v>
       </c>
       <c r="F109" t="n">
-        <v>413.95</v>
+        <v>404.69</v>
       </c>
       <c r="G109" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/124461146647?epid=4041988763&amp;hash=item1cfa766217:g:DawAAOSw2V5fwU4w</t>
+          <t>https://www.ebay.com/itm/Ryzen-5-5600x/353292978781?hash=item5241e70a5d:g:K70AAOSwJG5fsuHi</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Ryzen 5 5600X Desktop Processor AM4 IN HAND SHIPS TODAY *FREE SHIPPING* </t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3946,20 +3946,20 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>429.99</v>
+        <v>410</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="F110" t="n">
-        <v>429.99</v>
+        <v>413.95</v>
       </c>
       <c r="G110" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-AM4-IN-HAND-SHIPS-TODAY-FREE-SHIPPING/284092578716?epid=14042276408&amp;hash=item42253cbb9c:g:SeYAAOSwjXtfvBin</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/124461146647?epid=4041988763&amp;hash=item1cfa766217:g:DawAAOSw2V5fwU4w</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor AM4 6 Cores 12 Threads *FREE SHIPPING*</t>
+          <t xml:space="preserve">AMD Ryzen 5 5600X Desktop Processor AM4 IN HAND SHIPS TODAY *FREE SHIPPING* </t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3978,20 +3978,20 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>415</v>
+        <v>429.99</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>415</v>
+        <v>429.99</v>
       </c>
       <c r="G111" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-AM4-6-Cores-12-Threads-FREE-SHIPPING/284091660097?epid=14042276408&amp;hash=item42252eb741:g:SeYAAOSwjXtfvBin</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-AM4-IN-HAND-SHIPS-TODAY-FREE-SHIPPING/284092578716?epid=14042276408&amp;hash=item42253cbb9c:g:SeYAAOSwjXtfvBin</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Processor (4.6GHz, 6 Cores, Socket AM4) * READY TO SHIP</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor AM4 6 Cores 12 Threads *FREE SHIPPING*</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Processor-4-6GHz-6-Cores-Socket-AM4-READY-TO-SHIP/264955225369?epid=4041988763&amp;hash=item3db08fe519:g:sHgAAOSwIFhft~SH</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-AM4-6-Cores-12-Threads-FREE-SHIPPING/284091660097?epid=14042276408&amp;hash=item42252eb741:g:SeYAAOSwjXtfvBin</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
+          <t>AMD Ryzen 5 5600X Processor (4.6GHz, 6 Cores, Socket AM4) * READY TO SHIP</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4042,20 +4042,20 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="E113" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>383.7</v>
+        <v>415</v>
       </c>
       <c r="G113" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/274593541632?hash=item3fef0cee00:g:0csAAOSwEvJfwoQX</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Processor-4-6GHz-6-Cores-Socket-AM4-READY-TO-SHIP/264955225369?epid=4041988763&amp;hash=item3db08fe519:g:sHgAAOSwIFhft~SH</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">***IN HAND*** AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor </t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4074,20 +4074,20 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>411</v>
+        <v>383.7</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor/303782742347?epid=28042677701&amp;hash=item46badcc94b:g:Z8cAAOSw27dfvf3J</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/274593541632?hash=item3fef0cee00:g:0csAAOSwEvJfwoQX</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor AM4 NIB Ready to Ship</t>
+          <t xml:space="preserve">***IN HAND*** AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor </t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4106,20 +4106,20 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>389.99</v>
+        <v>411</v>
       </c>
       <c r="E115" t="n">
-        <v>18.99</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>408.98</v>
+        <v>411</v>
       </c>
       <c r="G115" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-AM4-NIB-Ready-to-Ship/124457665189?epid=4041988763&amp;hash=item1cfa4142a5:g:eFUAAOSws0hfvqHo</t>
+          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor/303782742347?epid=28042677701&amp;hash=item46badcc94b:g:Z8cAAOSw27dfvf3J</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor IN HAND *Fast Shipping*</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor AM4 NIB Ready to Ship</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4138,20 +4138,20 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>392</v>
+        <v>389.99</v>
       </c>
       <c r="E116" t="n">
-        <v>8.85</v>
+        <v>18.99</v>
       </c>
       <c r="F116" t="n">
-        <v>400.85</v>
+        <v>408.98</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-IN-HAND-Fast-Shipping/333801425572?epid=4041988763&amp;hash=item4db81d8aa4:g:9fsAAOSw0iRfvgW0</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-AM4-NIB-Ready-to-Ship/124457665189?epid=4041988763&amp;hash=item1cfa4142a5:g:eFUAAOSws0hfvqHo</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor IN HAND *Fast Shipping*</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4170,20 +4170,20 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>424.9</v>
+        <v>392</v>
       </c>
       <c r="E117" t="n">
-        <v>3.9</v>
+        <v>8.85</v>
       </c>
       <c r="F117" t="n">
-        <v>428.8</v>
+        <v>400.85</v>
       </c>
       <c r="G117" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/274590159913?epid=4041988763&amp;hash=item3feed95429:g:owkAAOSwDTdfoFuK</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-IN-HAND-Fast-Shipping/333801425572?epid=4041988763&amp;hash=item4db81d8aa4:g:9fsAAOSw0iRfvgW0</t>
         </is>
       </c>
     </row>
@@ -4193,29 +4193,29 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ryzen 5 5600x Asus TUF X570 Cpu and Motherboard Combo</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Open Box</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>550</v>
+        <v>424.9</v>
       </c>
       <c r="E118" t="n">
-        <v>9.69</v>
+        <v>3.9</v>
       </c>
       <c r="F118" t="n">
-        <v>559.6900000000001</v>
+        <v>428.8</v>
       </c>
       <c r="G118" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-5-5600x-Asus-TUF-X570-Cpu-and-Motherboard-Combo/233799565182?hash=item366f8a3f7e:g:5mwAAOSwhWBfwYgg</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/274590159913?epid=4041988763&amp;hash=item3feed95429:g:owkAAOSwDTdfoFuK</t>
         </is>
       </c>
     </row>
@@ -4225,29 +4225,29 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 6-core 12-Thread Unlocked Desktop Processor Gaming PC CPU 🔥</t>
+          <t>Ryzen 5 5600x Asus TUF X570 Cpu and Motherboard Combo</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Open Box</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>449.99</v>
+        <v>550</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>9.69</v>
       </c>
       <c r="F119" t="n">
-        <v>449.99</v>
+        <v>559.6900000000001</v>
       </c>
       <c r="G119" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Unlocked-Desktop-Processor-Gaming-PC-CPU/353285984868?epid=4041988763&amp;hash=item52417c5264:g:DO4AAOSwTnpfuAz3</t>
+          <t>https://www.ebay.com/itm/Ryzen-5-5600x-Asus-TUF-X570-Cpu-and-Motherboard-Combo/233799565182?hash=item366f8a3f7e:g:5mwAAOSwhWBfwYgg</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>✅AMD Ryzen 5 5600X 3.7 GHz base 4.6 GHz Boost Six-Core AM4 Processor (IN HAND)</t>
+          <t>AMD Ryzen 5 5600X 6-core 12-Thread Unlocked Desktop Processor Gaming PC CPU 🔥</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4266,20 +4266,20 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>405</v>
+        <v>449.99</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>405</v>
+        <v>449.99</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-base-4-6-GHz-Boost-Six-Core-AM4-Processor-IN-HAND/203189607883?hash=item2f4f0b5dcb:g:3sAAAOSw3L1fuGFc</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Unlocked-Desktop-Processor-Gaming-PC-CPU/353285984868?epid=4041988763&amp;hash=item52417c5264:g:DO4AAOSwTnpfuAz3</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
+          <t>✅AMD Ryzen 5 5600X 3.7 GHz base 4.6 GHz Boost Six-Core AM4 Processor (IN HAND)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4298,20 +4298,20 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>404.99</v>
+        <v>405</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>404.99</v>
+        <v>405</v>
       </c>
       <c r="G121" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/402564730780?epid=4041988763&amp;hash=item5dbaba4f9c:g:owkAAOSwDTdfoFuK</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-base-4-6-GHz-Boost-Six-Core-AM4-Processor-IN-HAND/203189607883?hash=item2f4f0b5dcb:g:3sAAAOSw3L1fuGFc</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Processor (4.6GHz, 6 Cores, Socket AM4) * READY TO SHIP</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4330,20 +4330,20 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>415</v>
+        <v>404.99</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>415</v>
+        <v>404.99</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Processor-4-6GHz-6-Cores-Socket-AM4-READY-TO-SHIP/264945837808?epid=4041988763&amp;hash=item3db000a6f0:g:sHgAAOSwIFhft~SH</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/402564730780?epid=4041988763&amp;hash=item5dbaba4f9c:g:owkAAOSwDTdfoFuK</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 4th Gen 6-Core, Unlocked With Wraith Stealth Cooler *In Hand*</t>
+          <t>AMD Ryzen 5 5600X Processor (4.6GHz, 6 Cores, Socket AM4) * READY TO SHIP</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4362,20 +4362,20 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="E123" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-4th-Gen-6-Core-Unlocked-With-Wraith-Stealth-Cooler-In-Hand/164536781701?epid=4041988763&amp;hash=item264f280b85:g:Bs4AAOSwcbhfvolS</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Processor-4-6GHz-6-Cores-Socket-AM4-READY-TO-SHIP/264945837808?epid=4041988763&amp;hash=item3db000a6f0:g:sHgAAOSwIFhft~SH</t>
         </is>
       </c>
     </row>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve">NEW SEALED - AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) </t>
+          <t>AMD Ryzen 5 5600X 4th Gen 6-Core, Unlocked With Wraith Stealth Cooler *In Hand*</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4397,17 +4397,17 @@
         <v>400</v>
       </c>
       <c r="E124" t="n">
-        <v>16.7</v>
+        <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>416.7</v>
+        <v>408</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-SEALED-AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/154214845967?epid=4041988763&amp;hash=item23e7ebce0f:g:eEYAAOSwhlBfwB50</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-4th-Gen-6-Core-Unlocked-With-Wraith-Stealth-Cooler-In-Hand/164536781701?epid=4041988763&amp;hash=item264f280b85:g:Bs4AAOSwcbhfvolS</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
+          <t xml:space="preserve">NEW SEALED - AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) </t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4429,17 +4429,17 @@
         <v>400</v>
       </c>
       <c r="E125" t="n">
-        <v>3.8</v>
+        <v>16.7</v>
       </c>
       <c r="F125" t="n">
-        <v>403.8</v>
+        <v>416.7</v>
       </c>
       <c r="G125" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/143855003995?epid=4041988763&amp;hash=item217e6d295b:g:ODAAAOSwxB5fuD9V</t>
+          <t>https://www.ebay.com/itm/NEW-SEALED-AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/154214845967?epid=4041988763&amp;hash=item23e7ebce0f:g:eEYAAOSwhlBfwB50</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor ***IN HAND*** </t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4458,20 +4458,20 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="E126" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="F126" t="n">
-        <v>423.95</v>
+        <v>403.8</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/284095923501?epid=28042677701&amp;hash=item42256fc52d:g:TrsAAOSwrYBfwS9o</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/143855003995?epid=4041988763&amp;hash=item217e6d295b:g:ODAAAOSwxB5fuD9V</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X *IN HAND* *SAME DAY SHIPPING*</t>
+          <t xml:space="preserve">AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor ***IN HAND*** </t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4490,20 +4490,20 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>419.99</v>
+        <v>420</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="F127" t="n">
-        <v>419.99</v>
+        <v>423.95</v>
       </c>
       <c r="G127" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-IN-HAND-SAME-DAY-SHIPPING/393032026363?epid=4041988763&amp;hash=item5b8288c8fb:g:m8QAAOSwOopfvo6L</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/284095923501?epid=28042677701&amp;hash=item42256fc52d:g:TrsAAOSwrYBfwS9o</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 6-core, 12-Thread Unlocked Processor with Wraith Cooler</t>
+          <t>AMD Ryzen 5 5600X *IN HAND* *SAME DAY SHIPPING*</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4522,20 +4522,20 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>395</v>
+        <v>419.99</v>
       </c>
       <c r="E128" t="n">
-        <v>9.01</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>404.01</v>
+        <v>419.99</v>
       </c>
       <c r="G128" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Unlocked-Processor-with-Wraith-Cooler/324388873781?epid=4041988763&amp;hash=item4b87156635:g:owkAAOSwDTdfoFuK</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-IN-HAND-SAME-DAY-SHIPPING/393032026363?epid=4041988763&amp;hash=item5b8288c8fb:g:m8QAAOSwOopfvo6L</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
+          <t>AMD Ryzen 5 5600X 6-core, 12-Thread Unlocked Processor with Wraith Cooler</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4554,20 +4554,20 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>9.01</v>
       </c>
       <c r="F129" t="n">
-        <v>420</v>
+        <v>404.01</v>
       </c>
       <c r="G129" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/274590357679?epid=4041988763&amp;hash=item3feedc58af:g:ImcAAOSwuE9fvvtH</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Unlocked-Processor-with-Wraith-Cooler/324388873781?epid=4041988763&amp;hash=item4b87156635:g:owkAAOSwDTdfoFuK</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) Box -...</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4586,20 +4586,20 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>429.99</v>
+        <v>420</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>429.99</v>
+        <v>420</v>
       </c>
       <c r="G130" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-Box/143864504892?epid=3042000955&amp;hash=item217efe223c:g:J98AAOSwwz1fwSni</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/274590357679?epid=4041988763&amp;hash=item3feedc58af:g:ImcAAOSwuE9fvvtH</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, AM4) In Hand Ready To Ship</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) Box -...</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4618,20 +4618,20 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>425</v>
+        <v>429.99</v>
       </c>
       <c r="E131" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>432.5</v>
+        <v>429.99</v>
       </c>
       <c r="G131" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-AM4-In-Hand-Ready-To-Ship/284092864499?epid=4041988763&amp;hash=item42254117f3:g:OqgAAOSwLTZfvWxi</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-Box/143864504892?epid=3042000955&amp;hash=item217efe223c:g:J98AAOSwwz1fwSni</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>AMD ryzen 5 5600X 6-core, 12 Thred Unlocked Desktop Processor ***IN HAND***</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, AM4) In Hand Ready To Ship</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4650,20 +4650,20 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F132" t="n">
-        <v>399</v>
+        <v>432.5</v>
       </c>
       <c r="G132" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-ryzen-5-5600X-6-core-12-Thred-Unlocked-Desktop-Processor-IN-HAND/363197983869?hash=item5490496c7d:g:BToAAOSwVH1fwVc9</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-AM4-In-Hand-Ready-To-Ship/284092864499?epid=4041988763&amp;hash=item42254117f3:g:OqgAAOSwLTZfvWxi</t>
         </is>
       </c>
     </row>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
+          <t>AMD ryzen 5 5600X 6-core, 12 Thred Unlocked Desktop Processor ***IN HAND***</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4682,20 +4682,20 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>399.88</v>
+        <v>399</v>
       </c>
       <c r="E133" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>411.88</v>
+        <v>399</v>
       </c>
       <c r="G133" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/124450537694?epid=4041988763&amp;hash=item1cf9d480de:g:LIIAAOSw~HpfuHla</t>
+          <t>https://www.ebay.com/itm/AMD-ryzen-5-5600X-6-core-12-Thred-Unlocked-Desktop-Processor-IN-HAND/363197983869?hash=item5490496c7d:g:BToAAOSwVH1fwVc9</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4714,20 +4714,20 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>410</v>
+        <v>399.88</v>
       </c>
       <c r="E134" t="n">
-        <v>3.95</v>
+        <v>12</v>
       </c>
       <c r="F134" t="n">
-        <v>413.95</v>
+        <v>411.88</v>
       </c>
       <c r="G134" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/293853571561?epid=4041988763&amp;hash=item446b09a9e9:g:5vwAAOSwmGNfvU-2</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/124450537694?epid=4041988763&amp;hash=item1cf9d480de:g:LIIAAOSw~HpfuHla</t>
         </is>
       </c>
     </row>
@@ -4746,20 +4746,20 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="E135" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="F135" t="n">
-        <v>448.8</v>
+        <v>413.95</v>
       </c>
       <c r="G135" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/274583829253?epid=4041988763&amp;hash=item3fee78bb05:g:b20AAOSwZ-9ft~ut</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/293853571561?epid=4041988763&amp;hash=item446b09a9e9:g:5vwAAOSwmGNfvU-2</t>
         </is>
       </c>
     </row>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 6 Cores 12 Threads Socket AM4 Processor CPU 3.7 4.6 GHz New</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4778,20 +4778,20 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>414.99</v>
+        <v>445</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F136" t="n">
-        <v>414.99</v>
+        <v>448.8</v>
       </c>
       <c r="G136" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-Cores-12-Threads-Socket-AM4-Processor-CPU-3-7-4-6-GHz-New/193767620601?epid=14042276408&amp;hash=item2d1d733ff9:g:gDsAAOSwl3xfvzUo</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/274583829253?epid=4041988763&amp;hash=item3fee78bb05:g:b20AAOSwZ-9ft~ut</t>
         </is>
       </c>
     </row>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
+          <t>AMD Ryzen 5 5600X 6 Cores 12 Threads Socket AM4 Processor CPU 3.7 4.6 GHz New</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4810,20 +4810,20 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>425</v>
+        <v>414.99</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>425</v>
+        <v>414.99</v>
       </c>
       <c r="G137" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/402580448366?epid=4041988763&amp;hash=item5dbbaa246e:g:LAwAAOSwrEJfwJw2</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-Cores-12-Threads-Socket-AM4-Processor-CPU-3-7-4-6-GHz-New/193767620601?epid=14042276408&amp;hash=item2d1d733ff9:g:gDsAAOSwl3xfvzUo</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor  IN HAND Comes With Free RAM!!</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4842,20 +4842,20 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="E138" t="n">
-        <v>11.39</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>416.39</v>
+        <v>425</v>
       </c>
       <c r="G138" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND-Comes-With-Free-RAM/114536960406?epid=28042677701&amp;hash=item1aaaef5196:g:Om0AAOSwsW1fu~co</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/402580448366?epid=4041988763&amp;hash=item5dbbaa246e:g:LAwAAOSwrEJfwJw2</t>
         </is>
       </c>
     </row>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>AMD ryzen 5 5600X 6-core, 12 Thred Unlocked Desktop Processor ***IN HAND***</t>
+          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor  IN HAND Comes With Free RAM!!</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4874,20 +4874,20 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E139" t="n">
-        <v>8.25</v>
+        <v>11.39</v>
       </c>
       <c r="F139" t="n">
-        <v>408.25</v>
+        <v>416.39</v>
       </c>
       <c r="G139" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-ryzen-5-5600X-6-core-12-Thred-Unlocked-Desktop-Processor-IN-HAND/284095836496?hash=item42256e7150:g:qVEAAOSwiVRfugF8</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND-Comes-With-Free-RAM/114536960406?epid=28042677701&amp;hash=item1aaaef5196:g:Om0AAOSwsW1fu~co</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ryzen 5 5600x</t>
+          <t>AMD ryzen 5 5600X 6-core, 12 Thred Unlocked Desktop Processor ***IN HAND***</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4906,20 +4906,20 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E140" t="n">
-        <v>4.99</v>
+        <v>8.25</v>
       </c>
       <c r="F140" t="n">
-        <v>409.99</v>
+        <v>408.25</v>
       </c>
       <c r="G140" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-5-5600x/254786013930?hash=item3b526e0aea:g:7xIAAOSwy8VfunR2</t>
+          <t>https://www.ebay.com/itm/AMD-ryzen-5-5600X-6-core-12-Thred-Unlocked-Desktop-Processor-IN-HAND/284095836496?hash=item42256e7150:g:qVEAAOSwiVRfugF8</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) NIB</t>
+          <t>Ryzen 5 5600x</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4938,20 +4938,20 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>399.95</v>
+        <v>405</v>
       </c>
       <c r="E141" t="n">
-        <v>15</v>
+        <v>4.99</v>
       </c>
       <c r="F141" t="n">
-        <v>414.95</v>
+        <v>409.99</v>
       </c>
       <c r="G141" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-NIB/264954325430?epid=4041988763&amp;hash=item3db08229b6:g:3EsAAOSwl3VfwK8M</t>
+          <t>https://www.ebay.com/itm/Ryzen-5-5600x/254786013930?hash=item3b526e0aea:g:7xIAAOSwy8VfunR2</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7GHz 6-Core AM4 Processor (IN HAND &amp; SEALED)</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) NIB</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4970,20 +4970,20 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>425</v>
+        <v>399.95</v>
       </c>
       <c r="E142" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="F142" t="n">
-        <v>436.75</v>
+        <v>414.95</v>
       </c>
       <c r="G142" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7GHz-6-Core-AM4-Processor-IN-HAND-SEALED/114533668924?hash=item1aaabd183c:g:F-MAAOSw0xBfsKxc</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-NIB/264954325430?epid=4041988763&amp;hash=item3db08229b6:g:3EsAAOSwl3VfwK8M</t>
         </is>
       </c>
     </row>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AMD RYZEN™ 5 5600X Processor (6-core, 3.7 GHz) Brand New in Box!</t>
+          <t>AMD Ryzen 5 5600X 3.7GHz 6-Core AM4 Processor (IN HAND &amp; SEALED)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5002,20 +5002,20 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="E143" t="n">
-        <v>15</v>
+        <v>11.75</v>
       </c>
       <c r="F143" t="n">
-        <v>415</v>
+        <v>436.75</v>
       </c>
       <c r="G143" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RYZEN-5-5600X-Processor-6-core-3-7-GHz-Brand-New-in-Box/203187741495?hash=item2f4eeee337:g:ntgAAOSwGAhftzyE</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7GHz-6-Core-AM4-Processor-IN-HAND-SEALED/114533668924?hash=item1aaabd183c:g:F-MAAOSw0xBfsKxc</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>✅AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor (IN HAND)</t>
+          <t>AMD RYZEN™ 5 5600X Processor (6-core, 3.7 GHz) Brand New in Box!</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5034,20 +5034,20 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>449</v>
+        <v>400</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F144" t="n">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="G144" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/184553123572?hash=item2af8392ef4:g:4gAAAOSw31xfvmD3</t>
+          <t>https://www.ebay.com/itm/AMD-RYZEN-5-5600X-Processor-6-core-3-7-GHz-Brand-New-in-Box/203187741495?hash=item2f4eeee337:g:ntgAAOSwGAhftzyE</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AMD RYZEN™ 5 5600X Processor (6-core, 3.7 GHz) Un-opened Box, Ships ASAP</t>
+          <t>✅AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor (IN HAND)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5066,20 +5066,20 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="E145" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>409.9</v>
+        <v>449</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RYZEN-5-5600X-Processor-6-core-3-7-GHz-Un-opened-Box-Ships-ASAP/184546803320?hash=item2af7d8be78:g:UwIAAOSwYFpfuaM7</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/184553123572?hash=item2af8392ef4:g:4gAAAOSw31xfvmD3</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) NIB</t>
+          <t>AMD RYZEN™ 5 5600X Processor (6-core, 3.7 GHz) Un-opened Box, Ships ASAP</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5098,20 +5098,20 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>424.99</v>
+        <v>399</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F146" t="n">
-        <v>424.99</v>
+        <v>409.9</v>
       </c>
       <c r="G146" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-NIB/284094876357?epid=4041988763&amp;hash=item42255fcac5:g:aDIAAOSwzN9fvUe0</t>
+          <t>https://www.ebay.com/itm/AMD-RYZEN-5-5600X-Processor-6-core-3-7-GHz-Un-opened-Box-Ships-ASAP/184546803320?hash=item2af7d8be78:g:UwIAAOSwYFpfuaM7</t>
         </is>
       </c>
     </row>
@@ -5121,29 +5121,29 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>AMD RYZEN 5 5600X 2020 In hand Brand New Open Box Ships Tomorrow</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) NIB</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Open Box</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>385</v>
+        <v>424.99</v>
       </c>
       <c r="E147" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>393.3</v>
+        <v>424.99</v>
       </c>
       <c r="G147" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RYZEN-5-5600X-2020-In-hand-Brand-New-Open-Box-Ships-Tomorrow/164533612098?hash=item264ef7ae42:g:tQUAAOSwIWtfvJ8p</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-NIB/284094876357?epid=4041988763&amp;hash=item42255fcac5:g:aDIAAOSwzN9fvUe0</t>
         </is>
       </c>
     </row>
@@ -5153,29 +5153,29 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor  IN HAND</t>
+          <t>AMD RYZEN 5 5600X 2020 In hand Brand New Open Box Ships Tomorrow</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Open Box</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>439</v>
+        <v>385</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F148" t="n">
-        <v>439</v>
+        <v>393.3</v>
       </c>
       <c r="G148" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/303772868426?epid=19042637223&amp;hash=item46ba461f4a:g:LCEAAOSwLAtftN1Q</t>
+          <t>https://www.ebay.com/itm/AMD-RYZEN-5-5600X-2020-In-hand-Brand-New-Open-Box-Ships-Tomorrow/164533612098?hash=item264ef7ae42:g:tQUAAOSwIWtfvJ8p</t>
         </is>
       </c>
     </row>
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AMD Ryzen 5 5600X Processor - In stock - w fan not 5700x 5800x 5900x 5950x</t>
+          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor  IN HAND</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5194,20 +5194,20 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="G149" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Processor-In-stock-w-fan-not-5700x-5800x-5900x-5950x/203196975743?hash=item2f4f7bca7f:g:KeAAAOSwEOhfvqTq</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/303772868426?epid=19042637223&amp;hash=item46ba461f4a:g:LCEAAOSwLAtftN1Q</t>
         </is>
       </c>
     </row>
@@ -5226,20 +5226,20 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G150" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Processor-In-stock-w-fan-not-5700x-5800x-5900x-5950x/203196975971?hash=item2f4f7bcb63:g:KeAAAOSwEOhfvqTq</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Processor-In-stock-w-fan-not-5700x-5800x-5900x-5950x/203196975743?hash=item2f4f7bca7f:g:KeAAAOSwEOhfvqTq</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) </t>
+          <t xml:space="preserve"> AMD Ryzen 5 5600X Processor - In stock - w fan not 5700x 5800x 5900x 5950x</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5258,20 +5258,20 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E151" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G151" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/174531361694?epid=4041988763&amp;hash=item28a2e13b9e:g:9B0AAOSwDchfvFgh</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Processor-In-stock-w-fan-not-5700x-5800x-5900x-5950x/203196975971?hash=item2f4f7bcb63:g:KeAAAOSwEOhfvqTq</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>AMD RYZEN™ 5 5600X Processor (6-core, 3.7 GHz) w/ cooler - SEALED - SHIPS TODAY!</t>
+          <t xml:space="preserve">AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) </t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5290,20 +5290,20 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>389.99</v>
+        <v>405</v>
       </c>
       <c r="E152" t="n">
-        <v>19.75</v>
+        <v>5</v>
       </c>
       <c r="F152" t="n">
-        <v>409.74</v>
+        <v>410</v>
       </c>
       <c r="G152" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RYZEN-5-5600X-Processor-6-core-3-7-GHz-w-cooler-SEALED-SHIPS-TODAY/154210305556?epid=11035923055&amp;hash=item23e7a68614:g:4mwAAOSwFvVfvIWi</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/174531361694?epid=4041988763&amp;hash=item28a2e13b9e:g:9B0AAOSwDchfvFgh</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
+          <t>AMD RYZEN™ 5 5600X Processor (6-core, 3.7 GHz) w/ cooler - SEALED - SHIPS TODAY!</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5322,20 +5322,20 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>375</v>
+        <v>389.99</v>
       </c>
       <c r="E153" t="n">
-        <v>4.2</v>
+        <v>19.75</v>
       </c>
       <c r="F153" t="n">
-        <v>379.2</v>
+        <v>409.74</v>
       </c>
       <c r="G153" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/353284779455?epid=4041988763&amp;hash=item524169edbf:g:owkAAOSwDTdfoFuK</t>
+          <t>https://www.ebay.com/itm/AMD-RYZEN-5-5600X-Processor-6-core-3-7-GHz-w-cooler-SEALED-SHIPS-TODAY/154210305556?epid=11035923055&amp;hash=item23e7a68614:g:4mwAAOSwFvVfvIWi</t>
         </is>
       </c>
     </row>
@@ -5354,20 +5354,20 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E154" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="F154" t="n">
-        <v>383.8</v>
+        <v>379.2</v>
       </c>
       <c r="G154" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/164524550670?epid=4041988763&amp;hash=item264e6d6a0e:g:3SUAAOSwQ5tftu-N</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/353284779455?epid=4041988763&amp;hash=item524169edbf:g:owkAAOSwDTdfoFuK</t>
         </is>
       </c>
     </row>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor. In hand ready to ship.</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5389,17 +5389,17 @@
         <v>380</v>
       </c>
       <c r="E155" t="n">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="F155" t="n">
-        <v>388</v>
+        <v>383.8</v>
       </c>
       <c r="G155" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-In-hand-ready-to-ship/333797732776?epid=4041988763&amp;hash=item4db7e531a8:g:NQMAAOSwl3VfuYaU</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/164524550670?epid=4041988763&amp;hash=item264e6d6a0e:g:3SUAAOSwQ5tftu-N</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor. In hand ready to ship.</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5418,20 +5418,20 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="E156" t="n">
-        <v>3.95</v>
+        <v>8</v>
       </c>
       <c r="F156" t="n">
-        <v>403.95</v>
+        <v>388</v>
       </c>
       <c r="G156" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/353287490472?hash=item5241934ba8:g:tn8AAOSwczxfuXO8</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-In-hand-ready-to-ship/333797732776?epid=4041988763&amp;hash=item4db7e531a8:g:NQMAAOSwl3VfuYaU</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Brand New! AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5453,17 +5453,17 @@
         <v>400</v>
       </c>
       <c r="E157" t="n">
-        <v>10</v>
+        <v>3.95</v>
       </c>
       <c r="F157" t="n">
-        <v>410</v>
+        <v>403.95</v>
       </c>
       <c r="G157" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Brand-New-AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/254785363963?epid=4041988763&amp;hash=item3b52641ffb:g:818AAOSwAaVfuXM2</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/353287490472?hash=item5241934ba8:g:tn8AAOSwczxfuXO8</t>
         </is>
       </c>
     </row>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
+          <t>Brand New! AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5482,20 +5482,20 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F158" t="n">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="G158" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/174535122602?epid=4041988763&amp;hash=item28a31a9eaa:g:oK4AAOSw9uhfv-1K</t>
+          <t>https://www.ebay.com/itm/Brand-New-AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4/254785363963?epid=4041988763&amp;hash=item3b52641ffb:g:818AAOSwAaVfuXM2</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) SHIPS TODAY </t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5514,20 +5514,20 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>394.99</v>
+        <v>425</v>
       </c>
       <c r="E159" t="n">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>414.98</v>
+        <v>425</v>
       </c>
       <c r="G159" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-SHIPS-TODAY/264952175396?epid=4041988763&amp;hash=item3db0615b24:g:owkAAOSwDTdfoFuK</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/174535122602?epid=4041988763&amp;hash=item28a31a9eaa:g:oK4AAOSw9uhfv-1K</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor Brand new In Hand .. Ships same day</t>
+          <t xml:space="preserve">AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) SHIPS TODAY </t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5546,20 +5546,20 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>398.99</v>
+        <v>394.99</v>
       </c>
       <c r="E160" t="n">
-        <v>4.2</v>
+        <v>19.99</v>
       </c>
       <c r="F160" t="n">
-        <v>403.19</v>
+        <v>414.98</v>
       </c>
       <c r="G160" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-Brand-new-In-Hand-Ships-same-day/264953712254?epid=4041988763&amp;hash=item3db078ce7e:g:owkAAOSwDTdfoFuK</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-SHIPS-TODAY/264952175396?epid=4041988763&amp;hash=item3db0615b24:g:owkAAOSwDTdfoFuK</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Processor (4.6GHz, 6 Cores, Socket AM4) In HAND Free Shipping</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor Brand new In Hand .. Ships same day</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5578,20 +5578,20 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>415</v>
+        <v>398.99</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="F161" t="n">
-        <v>415</v>
+        <v>403.19</v>
       </c>
       <c r="G161" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Processor-4-6GHz-6-Cores-Socket-AM4-In-HAND-Free-Shipping/274585100509?hash=item3fee8c20dd:g:-IMAAOSwXkRfuVyk</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-Brand-new-In-Hand-Ships-same-day/264953712254?epid=4041988763&amp;hash=item3db078ce7e:g:owkAAOSwDTdfoFuK</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X CPU AM4 Processor (4.6GHz, 6 Cores) With Wraith Cooler</t>
+          <t>AMD Ryzen 5 5600X Processor (4.6GHz, 6 Cores, Socket AM4) In HAND Free Shipping</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5610,20 +5610,20 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="G162" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-CPU-AM4-Processor-4-6GHz-6-Cores-With-Wraith-Cooler/363189544789?hash=item548fc8a755:g:CssAAOSw22FfuTpV</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Processor-4-6GHz-6-Cores-Socket-AM4-In-HAND-Free-Shipping/274585100509?hash=item3fee8c20dd:g:-IMAAOSwXkRfuVyk</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
+          <t>AMD Ryzen 5 5600X CPU AM4 Processor (4.6GHz, 6 Cores) With Wraith Cooler</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5642,20 +5642,20 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="G163" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/333798695208?epid=4041988763&amp;hash=item4db7f3e128:g:owkAAOSwDTdfoFuK</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-CPU-AM4-Processor-4-6GHz-6-Cores-With-Wraith-Cooler/363189544789?hash=item548fc8a755:g:CssAAOSw22FfuTpV</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X || ***IN HAND READY TO SHIP***</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5674,20 +5674,20 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="E164" t="n">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>443.95</v>
+        <v>400</v>
       </c>
       <c r="G164" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-IN-HAND-READY-TO-SHIP/174525538984?epid=24042267832&amp;hash=item28a28862a8:g:S1oAAOSwW~hfpGmp</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/333798695208?epid=4041988763&amp;hash=item4db7f3e128:g:owkAAOSwDTdfoFuK</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor  IN HAND</t>
+          <t>AMD Ryzen 5 5600X || ***IN HAND READY TO SHIP***</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5706,20 +5706,20 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="E165" t="n">
-        <v>7</v>
+        <v>4.95</v>
       </c>
       <c r="F165" t="n">
-        <v>412</v>
+        <v>443.95</v>
       </c>
       <c r="G165" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/264949697653?epid=24042267832&amp;hash=item3db03b8c75:g:E-QAAOSwgtBfu-YS</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-IN-HAND-READY-TO-SHIP/174525538984?epid=24042267832&amp;hash=item28a28862a8:g:S1oAAOSwW~hfpGmp</t>
         </is>
       </c>
     </row>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
+          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor  IN HAND</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5738,20 +5738,20 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E166" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F166" t="n">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="G166" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/133581849948?epid=4041988763&amp;hash=item1f1a19455c:g:owkAAOSwDTdfoFuK</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/264949697653?epid=24042267832&amp;hash=item3db03b8c75:g:E-QAAOSwgtBfu-YS</t>
         </is>
       </c>
     </row>
@@ -5770,20 +5770,20 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>410.5</v>
+        <v>400</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F167" t="n">
-        <v>410.5</v>
+        <v>406</v>
       </c>
       <c r="G167" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/353289776274?epid=4041988763&amp;hash=item5241b62c92:g:FtgAAOSwU7lfu8eI</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/133581849948?epid=4041988763&amp;hash=item1f1a19455c:g:owkAAOSwDTdfoFuK</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>✅AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor (IN HAND)</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5802,20 +5802,20 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>400</v>
+        <v>410.5</v>
       </c>
       <c r="E168" t="n">
-        <v>8.25</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>408.25</v>
+        <v>410.5</v>
       </c>
       <c r="G168" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/254787805539?hash=item3b52896163:g:n-YAAOSwz7JftWgG</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/353289776274?epid=4041988763&amp;hash=item5241b62c92:g:FtgAAOSwU7lfu8eI</t>
         </is>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK - 100-100…</t>
+          <t>✅AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor (IN HAND)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5837,17 +5837,17 @@
         <v>400</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="F169" t="n">
-        <v>400</v>
+        <v>408.25</v>
       </c>
       <c r="G169" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK-100-100/274588805791?epid=4041988763&amp;hash=item3feec4aa9f:g:MPUAAOSwMp9fvUQa</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/254787805539?hash=item3b52896163:g:n-YAAOSwz7JftWgG</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 6-core 12-Thread Unlocked Desktop Processor AM4 FAST SHIPPING</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK - 100-100…</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5866,20 +5866,20 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="G170" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Unlocked-Desktop-Processor-AM4-FAST-SHIPPING/274584497195?epid=4041988763&amp;hash=item3fee82ec2b:g:owkAAOSwDTdfoFuK</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK-100-100/274588805791?epid=4041988763&amp;hash=item3feec4aa9f:g:MPUAAOSwMp9fvUQa</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) NIB</t>
+          <t>AMD Ryzen 5 5600X 6-core 12-Thread Unlocked Desktop Processor AM4 FAST SHIPPING</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5898,20 +5898,20 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>424.99</v>
+        <v>380</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>424.99</v>
+        <v>380</v>
       </c>
       <c r="G171" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-NIB/284092722932?epid=4041988763&amp;hash=item42253eeef4:g:aDIAAOSwzN9fvUe0</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Unlocked-Desktop-Processor-AM4-FAST-SHIPPING/274584497195?epid=4041988763&amp;hash=item3fee82ec2b:g:owkAAOSwDTdfoFuK</t>
         </is>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Ryzen 5 5600X Processor (4.6GHz, 6 Cores, Socket AM4) In HAND  🔥. 🔥. 🔥. </t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) NIB</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5930,20 +5930,20 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>399.99</v>
+        <v>424.99</v>
       </c>
       <c r="E172" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>408.39</v>
+        <v>424.99</v>
       </c>
       <c r="G172" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Processor-4-6GHz-6-Cores-Socket-AM4-In-HAND/154209921525?epid=4041988763&amp;hash=item23e7a0a9f5:g:VfMAAOSw7MZfuF1s</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-NIB/284092722932?epid=4041988763&amp;hash=item42253eeef4:g:aDIAAOSwzN9fvUe0</t>
         </is>
       </c>
     </row>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Vermeer 3.7GHz 6-Core AM4 with Wraith Stealth Cooler</t>
+          <t xml:space="preserve">AMD Ryzen 5 5600X Processor (4.6GHz, 6 Cores, Socket AM4) In HAND  🔥. 🔥. 🔥. </t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5962,20 +5962,20 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>411.5</v>
+        <v>399.99</v>
       </c>
       <c r="E173" t="n">
-        <v>16.91</v>
+        <v>8.4</v>
       </c>
       <c r="F173" t="n">
-        <v>428.41</v>
+        <v>408.39</v>
       </c>
       <c r="G173" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Vermeer-3-7GHz-6-Core-AM4-with-Wraith-Stealth-Cooler/393030853748?epid=14042276408&amp;hash=item5b8276e474:g:mtgAAOSwjV9fsc3l</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Processor-4-6GHz-6-Cores-Socket-AM4-In-HAND/154209921525?epid=4041988763&amp;hash=item23e7a0a9f5:g:VfMAAOSw7MZfuF1s</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor 10% to charity</t>
+          <t>AMD Ryzen 5 5600X Vermeer 3.7GHz 6-Core AM4 with Wraith Stealth Cooler</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5994,20 +5994,20 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>419.99</v>
+        <v>411.5</v>
       </c>
       <c r="E174" t="n">
-        <v>8.25</v>
+        <v>16.91</v>
       </c>
       <c r="F174" t="n">
-        <v>428.24</v>
+        <v>428.41</v>
       </c>
       <c r="G174" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-10-to-charity/184553641184?epid=14042276408&amp;hash=item2af84114e0:g:-7AAAOSwne1fvrEv</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Vermeer-3-7GHz-6-Core-AM4-with-Wraith-Stealth-Cooler/393030853748?epid=14042276408&amp;hash=item5b8276e474:g:mtgAAOSwjV9fsc3l</t>
         </is>
       </c>
     </row>
@@ -6017,29 +6017,29 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor IN HAND SHIPS TODAY</t>
+          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor 10% to charity</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Pre-Owned</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>385</v>
+        <v>419.99</v>
       </c>
       <c r="E175" t="n">
-        <v>4.05</v>
+        <v>8.25</v>
       </c>
       <c r="F175" t="n">
-        <v>389.05</v>
+        <v>428.24</v>
       </c>
       <c r="G175" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND-SHIPS-TODAY/274590084175?epid=14042276408&amp;hash=item3feed82c4f:g:oIcAAOSwhC9fvrXB</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-10-to-charity/184553641184?epid=14042276408&amp;hash=item2af84114e0:g:-7AAAOSwne1fvrEv</t>
         </is>
       </c>
     </row>
@@ -6049,29 +6049,29 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor  IN HAND</t>
+          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor IN HAND SHIPS TODAY</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Pre-Owned</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="F176" t="n">
-        <v>400</v>
+        <v>389.05</v>
       </c>
       <c r="G176" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/303778924892?epid=19042637223&amp;hash=item46baa2895c:g:0SMAAOSwDiZftd5p</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND-SHIPS-TODAY/274590084175?epid=14042276408&amp;hash=item3feed82c4f:g:oIcAAOSwhC9fvrXB</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 6 Cores 12 Thread IN HAND READY TO SHIP</t>
+          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor  IN HAND</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6090,20 +6090,20 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>425.5</v>
+        <v>400</v>
       </c>
       <c r="E177" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>445.5</v>
+        <v>400</v>
       </c>
       <c r="G177" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-Cores-12-Thread-IN-HAND-READY-TO-SHIP/254784536362?epid=4041988763&amp;hash=item3b52577f2a:g:S5wAAOSwh-RfuFb3</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/303778924892?epid=19042637223&amp;hash=item46baa2895c:g:0SMAAOSwDiZftd5p</t>
         </is>
       </c>
     </row>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor best bang for your buck gaming!</t>
+          <t>AMD Ryzen 5 5600X 6 Cores 12 Thread IN HAND READY TO SHIP</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6122,20 +6122,20 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>410</v>
+        <v>425.5</v>
       </c>
       <c r="E178" t="n">
-        <v>8.25</v>
+        <v>20</v>
       </c>
       <c r="F178" t="n">
-        <v>418.25</v>
+        <v>445.5</v>
       </c>
       <c r="G178" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-best-bang-for-your-buck-gaming/164526794879?epid=4041988763&amp;hash=item264e8fa87f:g:3qYAAOSwzN9fuEac</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-Cores-12-Thread-IN-HAND-READY-TO-SHIP/254784536362?epid=4041988763&amp;hash=item3b52577f2a:g:S5wAAOSwh-RfuFb3</t>
         </is>
       </c>
     </row>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X *IN HAND* *SAME DAY SHIPPING*</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor best bang for your buck gaming!</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6154,20 +6154,20 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>429.99</v>
+        <v>410</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="F179" t="n">
-        <v>429.99</v>
+        <v>418.25</v>
       </c>
       <c r="G179" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-IN-HAND-SAME-DAY-SHIPPING/393031597073?epid=4041988763&amp;hash=item5b82823c11:g:m8QAAOSwOopfvo6L</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-best-bang-for-your-buck-gaming/164526794879?epid=4041988763&amp;hash=item264e8fa87f:g:3qYAAOSwzN9fuEac</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X  * SHIPS TODAY* 6-Core 3.7 GHz AM4</t>
+          <t>AMD Ryzen 5 5600X *IN HAND* *SAME DAY SHIPPING*</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6186,20 +6186,20 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>400</v>
+        <v>429.99</v>
       </c>
       <c r="E180" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>403.95</v>
+        <v>429.99</v>
       </c>
       <c r="G180" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-SHIPS-TODAY-6-Core-3-7-GHz-AM4/224231896271?epid=14042276408&amp;hash=item34354334cf:g:u74AAOSwzI5frWF9</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-IN-HAND-SAME-DAY-SHIPPING/393031597073?epid=4041988763&amp;hash=item5b82823c11:g:m8QAAOSwOopfvo6L</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor. IN HAND BRAND NEW FAST SHIPPING</t>
+          <t>AMD Ryzen 5 5600X  * SHIPS TODAY* 6-Core 3.7 GHz AM4</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6218,20 +6218,20 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>409.99</v>
+        <v>400</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="F181" t="n">
-        <v>409.99</v>
+        <v>403.95</v>
       </c>
       <c r="G181" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-IN-HAND-BRAND-NEW-FAST-SHIPPING/303783742192?epid=4041988763&amp;hash=item46baec0af0:g:fZAAAOSwPRFfvrls</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-SHIPS-TODAY-6-Core-3-7-GHz-AM4/224231896271?epid=14042276408&amp;hash=item34354334cf:g:u74AAOSwzI5frWF9</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7 GHz 6-Core Socket AM4 Unlocked Processor</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor. IN HAND BRAND NEW FAST SHIPPING</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6250,20 +6250,20 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>395</v>
+        <v>409.99</v>
       </c>
       <c r="E182" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>404.6</v>
+        <v>409.99</v>
       </c>
       <c r="G182" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-6-Core-Socket-AM4-Unlocked-Processor/143850542288?hash=item217e2914d0:g:IHcAAOSwxvNftWNN</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-IN-HAND-BRAND-NEW-FAST-SHIPPING/303783742192?epid=4041988763&amp;hash=item46baec0af0:g:fZAAAOSwPRFfvrls</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600x 4th Gen 6-Core, Unlocked With Wraith Stealth Cooler *In Hand*</t>
+          <t>AMD Ryzen 5 5600X 3.7 GHz 6-Core Socket AM4 Unlocked Processor</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6282,20 +6282,20 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>399.95</v>
+        <v>395</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="F183" t="n">
-        <v>399.95</v>
+        <v>404.6</v>
       </c>
       <c r="G183" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600x-4th-Gen-6-Core-Unlocked-With-Wraith-Stealth-Cooler-In-Hand/174533776348?epid=14042276408&amp;hash=item28a30613dc:g:iIsAAOSwtllfvp35</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-6-Core-Socket-AM4-Unlocked-Processor/143850542288?hash=item217e2914d0:g:IHcAAOSwxvNftWNN</t>
         </is>
       </c>
     </row>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (6 Cores, Socket AM4)</t>
+          <t>AMD Ryzen 5 5600x 4th Gen 6-Core, Unlocked With Wraith Stealth Cooler *In Hand*</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6314,20 +6314,20 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>399</v>
+        <v>399.95</v>
       </c>
       <c r="E184" t="n">
-        <v>11.59</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>410.59</v>
+        <v>399.95</v>
       </c>
       <c r="G184" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-6-Cores-Socket-AM4/264948942832?epid=4041988763&amp;hash=item3db03007f0:g:lkkAAOSwGgdftJWK</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600x-4th-Gen-6-Core-Unlocked-With-Wraith-Stealth-Cooler-In-Hand/174533776348?epid=14042276408&amp;hash=item28a30613dc:g:iIsAAOSwtllfvp35</t>
         </is>
       </c>
     </row>
@@ -6337,7 +6337,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor - Brand New</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (6 Cores, Socket AM4)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6346,20 +6346,20 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="E185" t="n">
-        <v>19</v>
+        <v>11.59</v>
       </c>
       <c r="F185" t="n">
-        <v>438</v>
+        <v>410.59</v>
       </c>
       <c r="G185" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-Brand-New/264952289438?epid=24042267832&amp;hash=item3db063189e:g:uXMAAOSwidZfu~rF</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-6-Cores-Socket-AM4/264948942832?epid=4041988763&amp;hash=item3db03007f0:g:lkkAAOSwGgdftJWK</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>BNIB AMD - Ryzen 5 5600X 4th Gen 6-core, 12-threads Unlocked Desktop Processor W</t>
+          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor - Brand New</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6378,20 +6378,20 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F186" t="n">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="G186" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/BNIB-AMD-Ryzen-5-5600X-4th-Gen-6-core-12-threads-Unlocked-Desktop-Processor-W/184551167891?hash=item2af81b5793:g:NaEAAOSws0hfvVI-</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-Brand-New/264952289438?epid=24042267832&amp;hash=item3db063189e:g:uXMAAOSwidZfu~rF</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600x 4th Gen 6-Core, Unlocked With Wraith Stealth Cooler *In Hand*</t>
+          <t>BNIB AMD - Ryzen 5 5600X 4th Gen 6-core, 12-threads Unlocked Desktop Processor W</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6410,20 +6410,20 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G187" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600x-4th-Gen-6-Core-Unlocked-With-Wraith-Stealth-Cooler-In-Hand/124456793550?epid=14042276408&amp;hash=item1cfa33f5ce:g:PzQAAOSwMplfvjNL</t>
+          <t>https://www.ebay.com/itm/BNIB-AMD-Ryzen-5-5600X-4th-Gen-6-core-12-threads-Unlocked-Desktop-Processor-W/184551167891?hash=item2af81b5793:g:NaEAAOSws0hfvVI-</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 4th Gen 6-core, 12-threads Unlocked, in hand, ships today</t>
+          <t>AMD Ryzen 5 5600x 4th Gen 6-Core, Unlocked With Wraith Stealth Cooler *In Hand*</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6442,20 +6442,20 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="G188" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-4th-Gen-6-core-12-threads-Unlocked-in-hand-ships-today/193764150752?epid=14042276408&amp;hash=item2d1d3e4de0:g:RqsAAOSwNjdfvB7L</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600x-4th-Gen-6-Core-Unlocked-With-Wraith-Stealth-Cooler-In-Hand/124456793550?epid=14042276408&amp;hash=item1cfa33f5ce:g:PzQAAOSwMplfvjNL</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X **SEALED, Never Open** In hand FAST SHIPPING</t>
+          <t>AMD Ryzen 5 5600X 4th Gen 6-core, 12-threads Unlocked, in hand, ships today</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6474,20 +6474,20 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>399.88</v>
+        <v>398</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>399.88</v>
+        <v>398</v>
       </c>
       <c r="G189" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-SEALED-Never-Open-In-hand-FAST-SHIPPING/174525814197?hash=item28a28c95b5:g:uZYAAOSwH9tftt2u</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-4th-Gen-6-core-12-threads-Unlocked-in-hand-ships-today/193764150752?epid=14042276408&amp;hash=item2d1d3e4de0:g:RqsAAOSwNjdfvB7L</t>
         </is>
       </c>
     </row>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
+          <t>AMD Ryzen 5 5600X **SEALED, Never Open** In hand FAST SHIPPING</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6506,20 +6506,20 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>419.99</v>
+        <v>399.88</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>419.99</v>
+        <v>399.88</v>
       </c>
       <c r="G190" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/114540429007?epid=4041988763&amp;hash=item1aab243ecf:g:owkAAOSwDTdfoFuK</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-SEALED-Never-Open-In-hand-FAST-SHIPPING/174525814197?hash=item28a28c95b5:g:uZYAAOSwH9tftt2u</t>
         </is>
       </c>
     </row>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor - Brand New</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) MPK -...</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6538,20 +6538,20 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>419</v>
+        <v>419.99</v>
       </c>
       <c r="E191" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>438</v>
+        <v>419.99</v>
       </c>
       <c r="G191" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-Brand-New/264949823775?epid=24042267832&amp;hash=item3db03d791f:g:uXMAAOSwidZfu~rF</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-MPK/114540429007?epid=4041988763&amp;hash=item1aab243ecf:g:owkAAOSwDTdfoFuK</t>
         </is>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>✅AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor (IN HAND)</t>
+          <t>AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor - Brand New</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6570,20 +6570,20 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>469.99</v>
+        <v>419</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F192" t="n">
-        <v>469.99</v>
+        <v>438</v>
       </c>
       <c r="G192" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/124452462785?hash=item1cf9f1e0c1:g:sNYAAOSwbK5fr0F2</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-Brand-New/264949823775?epid=24042267832&amp;hash=item3db03d791f:g:uXMAAOSwidZfu~rF</t>
         </is>
       </c>
     </row>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) -READY TO SHIP</t>
+          <t>✅AMD Ryzen 5 5600X 3.7 GHz Six-Core AM4 Processor (IN HAND)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6602,20 +6602,20 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>419.95</v>
+        <v>469.99</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>419.95</v>
+        <v>469.99</v>
       </c>
       <c r="G193" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-READY-TO-SHIP/383821064157?epid=4041988763&amp;hash=item595d84a7dd:g:jDIAAOSwmjxfuEAv</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-3-7-GHz-Six-Core-AM4-Processor-IN-HAND/124452462785?hash=item1cf9f1e0c1:g:sNYAAOSwbK5fr0F2</t>
         </is>
       </c>
     </row>
@@ -6625,7 +6625,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor IN HAND FAST SHIPPING NOW</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, Socket AM4) -READY TO SHIP</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6634,20 +6634,20 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>419</v>
+        <v>419.95</v>
       </c>
       <c r="E194" t="n">
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>439.9</v>
+        <v>419.95</v>
       </c>
       <c r="G194" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-IN-HAND-FAST-SHIPPING-NOW/184542374132?epid=4041988763&amp;hash=item2af79528f4:g:8l0AAOSwtYNftcwH</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-Socket-AM4-READY-TO-SHIP/383821064157?epid=4041988763&amp;hash=item595d84a7dd:g:jDIAAOSwmjxfuEAv</t>
         </is>
       </c>
     </row>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Processor (4.6GHz, 6 Cores, Socket AM4) In HAND Free Shipping</t>
+          <t>AMD Ryzen 5 5600X Desktop Processor IN HAND FAST SHIPPING NOW</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6666,20 +6666,20 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="F195" t="n">
-        <v>409</v>
+        <v>439.9</v>
       </c>
       <c r="G195" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Processor-4-6GHz-6-Cores-Socket-AM4-In-HAND-Free-Shipping/264951160785?epid=4041988763&amp;hash=item3db051dfd1:g:0qAAAOSwjsxftxqd</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-IN-HAND-FAST-SHIPPING-NOW/184542374132?epid=4041988763&amp;hash=item2af79528f4:g:8l0AAOSwtYNftcwH</t>
         </is>
       </c>
     </row>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>New AMD Ryzen 5 - 5600X CPU with Wraith cooler -  3.7 / 4.6 GHz Max - In Hand</t>
+          <t>AMD Ryzen 5 5600X Processor (4.6GHz, 6 Cores, Socket AM4) In HAND Free Shipping</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6698,20 +6698,20 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="E196" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="G196" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/New-AMD-Ryzen-5-5600X-CPU-with-Wraith-cooler-3-7-4-6-GHz-Max-In-Hand/254783821709?epid=14042276408&amp;hash=item3b524c978d:g:RZcAAOSwG5xfpBJI</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Processor-4-6GHz-6-Cores-Socket-AM4-In-HAND-Free-Shipping/264951160785?epid=4041988763&amp;hash=item3db051dfd1:g:0qAAAOSwjsxftxqd</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 6-Core 3.7 GHz Socket AM4 100-100000065BOX Desktop Processor</t>
+          <t>New AMD Ryzen 5 - 5600X CPU with Wraith cooler -  3.7 / 4.6 GHz Max - In Hand</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6730,20 +6730,20 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>404.99</v>
+        <v>390</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F197" t="n">
-        <v>404.99</v>
+        <v>398</v>
       </c>
       <c r="G197" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-Core-3-7-GHz-Socket-AM4-100-100000065BOX-Desktop-Processor/233795349778?epid=3042000955&amp;hash=item366f49ed12:g:EvUAAOSwwGdftfmC</t>
+          <t>https://www.ebay.com/itm/New-AMD-Ryzen-5-5600X-CPU-with-Wraith-cooler-3-7-4-6-GHz-Max-In-Hand/254783821709?epid=14042276408&amp;hash=item3b524c978d:g:RZcAAOSwG5xfpBJI</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 6-core, 12-Thread Unlocked Desktop Processor with Wraith Steal</t>
+          <t>AMD Ryzen 5 5600X 6-Core 3.7 GHz Socket AM4 100-100000065BOX Desktop Processor</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6762,20 +6762,20 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>415</v>
+        <v>404.99</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>415</v>
+        <v>404.99</v>
       </c>
       <c r="G198" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Unlocked-Desktop-Processor-with-Wraith-Steal/293853786418?hash=item446b0cf132:g:sBgAAOSw9-9fvXDd</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-Core-3-7-GHz-Socket-AM4-100-100000065BOX-Desktop-Processor/233795349778?epid=3042000955&amp;hash=item366f49ed12:g:EvUAAOSwwGdftfmC</t>
         </is>
       </c>
     </row>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X 6-core, 12-Thread Unlocked Desktop Processor (ON HAND)</t>
+          <t>AMD Ryzen 5 5600X 6-core, 12-Thread Unlocked Desktop Processor with Wraith Steal</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6794,20 +6794,20 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="G199" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Unlocked-Desktop-Processor-ON-HAND/254789006078?hash=item3b529bb2fe:g:eWIAAOSwwDlfto5Y</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Unlocked-Desktop-Processor-with-Wraith-Steal/293853786418?hash=item446b0cf132:g:sBgAAOSw9-9fvXDd</t>
         </is>
       </c>
     </row>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>🔥IN HAND: AMD Ryzen 5 5600X CPU Desktop Processor - Ready To Ship 🔥</t>
+          <t>AMD Ryzen 5 5600X 6-core, 12-Thread Unlocked Desktop Processor (ON HAND)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6826,20 +6826,20 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G200" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-CPU-Desktop-Processor-Ready-To-Ship/164535125132?epid=4041988763&amp;hash=item264f0ec48c:g:UogAAOSw3~dft~NT</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-6-core-12-Thread-Unlocked-Desktop-Processor-ON-HAND/254789006078?hash=item3b529bb2fe:g:eWIAAOSwwDlfto5Y</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5 5600X Desktop Processor (4.6GHz, 6 Cores, 12-Thread) NEW SEALED</t>
+          <t>🔥IN HAND: AMD Ryzen 5 5600X CPU Desktop Processor - Ready To Ship 🔥</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6858,20 +6858,20 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E201" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G201" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5-5600X-Desktop-Processor-4-6GHz-6-Cores-12-Thread-NEW-SEALED/224238837655?epid=4041988763&amp;hash=item3435ad1f97:g:owkAAOSwDTdfoFuK</t>
+          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-5-5600X-CPU-Desktop-Processor-Ready-To-Ship/164535125132?epid=4041988763&amp;hash=item264f0ec48c:g:UogAAOSw3~dft~NT</t>
         </is>
       </c>
     </row>
@@ -13277,7 +13277,7 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -15837,7 +15837,7 @@
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -16349,7 +16349,7 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -16733,7 +16733,7 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -17245,7 +17245,7 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -17629,7 +17629,7 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -18141,7 +18141,7 @@
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -19357,7 +19357,7 @@
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
